--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.024079263468992</v>
+        <v>7.024079263468655</v>
       </c>
       <c r="D2">
-        <v>11.59009989450599</v>
+        <v>11.59009989450592</v>
       </c>
       <c r="E2">
-        <v>48.80770603738618</v>
+        <v>48.80770603738609</v>
       </c>
       <c r="F2">
-        <v>66.29870504809368</v>
+        <v>66.29870504809293</v>
       </c>
       <c r="G2">
-        <v>54.43094264552869</v>
+        <v>54.43094264552803</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.95634570265923</v>
+        <v>37.95634570265921</v>
       </c>
       <c r="L2">
-        <v>117.8896175902811</v>
+        <v>117.8896175902809</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.022565269413685</v>
+        <v>5.022565269413551</v>
       </c>
       <c r="D3">
-        <v>8.501795799338948</v>
+        <v>8.501795799338753</v>
       </c>
       <c r="E3">
-        <v>41.72569205095557</v>
+        <v>41.72569205095563</v>
       </c>
       <c r="F3">
-        <v>51.61782736017183</v>
+        <v>51.61782736017144</v>
       </c>
       <c r="G3">
-        <v>42.07008901613058</v>
+        <v>42.0700890161302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>32.74930866207947</v>
+        <v>32.74930866207954</v>
       </c>
       <c r="L3">
         <v>102.1451567906368</v>
@@ -494,16 +494,16 @@
         <v>4.226094782943105</v>
       </c>
       <c r="D4">
-        <v>7.26342511538043</v>
+        <v>7.263425115380231</v>
       </c>
       <c r="E4">
-        <v>38.55413920834827</v>
+        <v>38.55413920834835</v>
       </c>
       <c r="F4">
-        <v>45.56331655103456</v>
+        <v>45.56331655103376</v>
       </c>
       <c r="G4">
-        <v>36.98392131194534</v>
+        <v>36.98392131194466</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>30.36798181356789</v>
       </c>
       <c r="L4">
-        <v>94.80331205017978</v>
+        <v>94.80331205017976</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.940891220645663</v>
+        <v>3.940891220645796</v>
       </c>
       <c r="D5">
-        <v>6.818963378027081</v>
+        <v>6.818963378027341</v>
       </c>
       <c r="E5">
-        <v>37.35566848575809</v>
+        <v>37.35566848575825</v>
       </c>
       <c r="F5">
-        <v>43.37168515815739</v>
+        <v>43.37168515815863</v>
       </c>
       <c r="G5">
-        <v>35.14329498610896</v>
+        <v>35.14329498611003</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>29.46143732167241</v>
+        <v>29.46143732167253</v>
       </c>
       <c r="L5">
-        <v>91.99345695656682</v>
+        <v>91.99345695656733</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.895211138978791</v>
+        <v>3.895211138978789</v>
       </c>
       <c r="D6">
-        <v>6.7477301541101</v>
+        <v>6.747730154110107</v>
       </c>
       <c r="E6">
-        <v>37.16031817823535</v>
+        <v>37.16031817823524</v>
       </c>
       <c r="F6">
-        <v>43.01967673606224</v>
+        <v>43.01967673606269</v>
       </c>
       <c r="G6">
-        <v>34.84765410588421</v>
+        <v>34.84765410588459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>29.31334766194161</v>
+        <v>29.31334766194153</v>
       </c>
       <c r="L6">
-        <v>91.53379382712598</v>
+        <v>91.53379382712595</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.222123922337967</v>
+        <v>4.222123922338369</v>
       </c>
       <c r="D7">
-        <v>7.257240367933064</v>
+        <v>7.257240367933125</v>
       </c>
       <c r="E7">
-        <v>38.53769651561149</v>
+        <v>38.53769651561144</v>
       </c>
       <c r="F7">
-        <v>45.53287964391756</v>
+        <v>45.53287964391696</v>
       </c>
       <c r="G7">
-        <v>36.95835895198727</v>
+        <v>36.95835895198677</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>30.35556785070143</v>
+        <v>30.35556785070137</v>
       </c>
       <c r="L7">
-        <v>94.76488375320872</v>
+        <v>94.76488375320852</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D8">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E8">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F8">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G8">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L8">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D9">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E9">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F9">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G9">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L9">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D10">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E10">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F10">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G10">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L10">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D11">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E11">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F11">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G11">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L11">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D12">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E12">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F12">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G12">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L12">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D13">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E13">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F13">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G13">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L13">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D14">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E14">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F14">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G14">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L14">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D15">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E15">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F15">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G15">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L15">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D16">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E16">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F16">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G16">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L16">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D17">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E17">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F17">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G17">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L17">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D18">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E18">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F18">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G18">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L18">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D19">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E19">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F19">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G19">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L19">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D20">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E20">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F20">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G20">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L20">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D21">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E21">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F21">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G21">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L21">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D22">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E22">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F22">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G22">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L22">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D23">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E23">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F23">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G23">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L23">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D24">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E24">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F24">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G24">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L24">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.147180711946873</v>
+        <v>6.147180711946739</v>
       </c>
       <c r="D25">
-        <v>10.2418572158044</v>
+        <v>10.2418572158042</v>
       </c>
       <c r="E25">
-        <v>45.83792857277608</v>
+        <v>45.83792857277582</v>
       </c>
       <c r="F25">
-        <v>59.96904215321467</v>
+        <v>59.96904215321373</v>
       </c>
       <c r="G25">
-        <v>49.09503628030743</v>
+        <v>49.09503628030667</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.79337400455466</v>
+        <v>35.79337400455449</v>
       </c>
       <c r="L25">
-        <v>111.4162123329963</v>
+        <v>111.4162123329958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.024079263468655</v>
+        <v>7.024079263468992</v>
       </c>
       <c r="D2">
-        <v>11.59009989450592</v>
+        <v>11.59009989450599</v>
       </c>
       <c r="E2">
-        <v>48.80770603738609</v>
+        <v>48.80770603738618</v>
       </c>
       <c r="F2">
-        <v>66.29870504809293</v>
+        <v>66.29870504809368</v>
       </c>
       <c r="G2">
-        <v>54.43094264552803</v>
+        <v>54.43094264552869</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.95634570265921</v>
+        <v>37.95634570265923</v>
       </c>
       <c r="L2">
-        <v>117.8896175902809</v>
+        <v>117.8896175902811</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.022565269413551</v>
+        <v>5.022565269413685</v>
       </c>
       <c r="D3">
-        <v>8.501795799338753</v>
+        <v>8.501795799338948</v>
       </c>
       <c r="E3">
-        <v>41.72569205095563</v>
+        <v>41.72569205095557</v>
       </c>
       <c r="F3">
-        <v>51.61782736017144</v>
+        <v>51.61782736017183</v>
       </c>
       <c r="G3">
-        <v>42.0700890161302</v>
+        <v>42.07008901613058</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>32.74930866207954</v>
+        <v>32.74930866207947</v>
       </c>
       <c r="L3">
         <v>102.1451567906368</v>
@@ -494,16 +494,16 @@
         <v>4.226094782943105</v>
       </c>
       <c r="D4">
-        <v>7.263425115380231</v>
+        <v>7.26342511538043</v>
       </c>
       <c r="E4">
-        <v>38.55413920834835</v>
+        <v>38.55413920834827</v>
       </c>
       <c r="F4">
-        <v>45.56331655103376</v>
+        <v>45.56331655103456</v>
       </c>
       <c r="G4">
-        <v>36.98392131194466</v>
+        <v>36.98392131194534</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>30.36798181356789</v>
       </c>
       <c r="L4">
-        <v>94.80331205017976</v>
+        <v>94.80331205017978</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.940891220645796</v>
+        <v>3.940891220645663</v>
       </c>
       <c r="D5">
-        <v>6.818963378027341</v>
+        <v>6.818963378027081</v>
       </c>
       <c r="E5">
-        <v>37.35566848575825</v>
+        <v>37.35566848575809</v>
       </c>
       <c r="F5">
-        <v>43.37168515815863</v>
+        <v>43.37168515815739</v>
       </c>
       <c r="G5">
-        <v>35.14329498611003</v>
+        <v>35.14329498610896</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>29.46143732167253</v>
+        <v>29.46143732167241</v>
       </c>
       <c r="L5">
-        <v>91.99345695656733</v>
+        <v>91.99345695656682</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.895211138978789</v>
+        <v>3.895211138978791</v>
       </c>
       <c r="D6">
-        <v>6.747730154110107</v>
+        <v>6.7477301541101</v>
       </c>
       <c r="E6">
-        <v>37.16031817823524</v>
+        <v>37.16031817823535</v>
       </c>
       <c r="F6">
-        <v>43.01967673606269</v>
+        <v>43.01967673606224</v>
       </c>
       <c r="G6">
-        <v>34.84765410588459</v>
+        <v>34.84765410588421</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>29.31334766194153</v>
+        <v>29.31334766194161</v>
       </c>
       <c r="L6">
-        <v>91.53379382712595</v>
+        <v>91.53379382712598</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.222123922338369</v>
+        <v>4.222123922337967</v>
       </c>
       <c r="D7">
-        <v>7.257240367933125</v>
+        <v>7.257240367933064</v>
       </c>
       <c r="E7">
-        <v>38.53769651561144</v>
+        <v>38.53769651561149</v>
       </c>
       <c r="F7">
-        <v>45.53287964391696</v>
+        <v>45.53287964391756</v>
       </c>
       <c r="G7">
-        <v>36.95835895198677</v>
+        <v>36.95835895198727</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>30.35556785070137</v>
+        <v>30.35556785070143</v>
       </c>
       <c r="L7">
-        <v>94.76488375320852</v>
+        <v>94.76488375320872</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D8">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E8">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F8">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G8">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L8">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D9">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E9">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F9">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G9">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L9">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D10">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E10">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F10">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G10">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L10">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D11">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E11">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F11">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G11">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L11">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D12">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E12">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F12">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G12">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L12">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D13">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E13">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F13">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G13">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L13">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D14">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E14">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F14">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G14">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L14">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D15">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E15">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F15">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G15">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L15">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D16">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E16">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F16">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G16">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L16">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D17">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E17">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F17">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G17">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L17">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D18">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E18">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F18">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G18">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L18">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D19">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E19">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F19">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G19">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L19">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D20">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E20">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F20">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G20">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L20">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D21">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E21">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F21">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G21">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L21">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D22">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E22">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F22">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G22">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L22">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D23">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E23">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F23">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G23">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L23">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D24">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E24">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F24">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G24">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L24">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.147180711946739</v>
+        <v>6.147180711946873</v>
       </c>
       <c r="D25">
-        <v>10.2418572158042</v>
+        <v>10.2418572158044</v>
       </c>
       <c r="E25">
-        <v>45.83792857277582</v>
+        <v>45.83792857277608</v>
       </c>
       <c r="F25">
-        <v>59.96904215321373</v>
+        <v>59.96904215321467</v>
       </c>
       <c r="G25">
-        <v>49.09503628030667</v>
+        <v>49.09503628030743</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.79337400455449</v>
+        <v>35.79337400455466</v>
       </c>
       <c r="L25">
-        <v>111.4162123329958</v>
+        <v>111.4162123329963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.024079263468992</v>
+        <v>7.014908060715393</v>
       </c>
       <c r="D2">
-        <v>11.59009989450599</v>
+        <v>11.55726331526985</v>
       </c>
       <c r="E2">
-        <v>48.80770603738618</v>
+        <v>48.77861606791234</v>
       </c>
       <c r="F2">
-        <v>66.29870504809368</v>
+        <v>66.15019514515753</v>
       </c>
       <c r="G2">
-        <v>54.43094264552869</v>
+        <v>54.43522423029056</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>53.24297547843637</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,13 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>37.95634570265923</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>117.8896175902811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>37.93523890949226</v>
+      </c>
+      <c r="M2">
+        <v>117.8172617218931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,22 +459,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.022565269413685</v>
+        <v>5.021248063967723</v>
       </c>
       <c r="D3">
-        <v>8.501795799338948</v>
+        <v>8.485823774112045</v>
       </c>
       <c r="E3">
-        <v>41.72569205095557</v>
+        <v>41.71913050094596</v>
       </c>
       <c r="F3">
-        <v>51.61782736017183</v>
+        <v>51.54384832481818</v>
       </c>
       <c r="G3">
-        <v>42.07008901613058</v>
+        <v>42.10760218607538</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>40.99978918100952</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,13 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>32.74930866207947</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>102.1451567906368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>32.74431022545591</v>
+      </c>
+      <c r="M3">
+        <v>102.1235125067305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,22 +500,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.226094782943105</v>
+        <v>4.225715106954164</v>
       </c>
       <c r="D4">
-        <v>7.26342511538043</v>
+        <v>7.250892564175366</v>
       </c>
       <c r="E4">
-        <v>38.55413920834827</v>
+        <v>38.55041315119669</v>
       </c>
       <c r="F4">
-        <v>45.56331655103456</v>
+        <v>45.50428471064139</v>
       </c>
       <c r="G4">
-        <v>36.98392131194534</v>
+        <v>37.02182740442221</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>35.981214096226</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,13 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>30.36798181356789</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>94.80331205017978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>30.36510253465444</v>
+      </c>
+      <c r="M4">
+        <v>94.78937876810825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.940891220645663</v>
+        <v>3.940727616739224</v>
       </c>
       <c r="D5">
-        <v>6.818963378027081</v>
+        <v>6.807485311976054</v>
       </c>
       <c r="E5">
-        <v>37.35566848575809</v>
+        <v>37.35264697156701</v>
       </c>
       <c r="F5">
-        <v>43.37168515815739</v>
+        <v>43.31718502109771</v>
       </c>
       <c r="G5">
-        <v>35.14329498610896</v>
+        <v>35.18061622170428</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>34.17173673202981</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,13 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>29.46143732167241</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>91.99345695656682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>29.45909652369959</v>
+      </c>
+      <c r="M5">
+        <v>91.98161059703175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,22 +582,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.895211138978791</v>
+        <v>3.895077548605038</v>
       </c>
       <c r="D6">
-        <v>6.7477301541101</v>
+        <v>6.736414209024111</v>
       </c>
       <c r="E6">
-        <v>37.16031817823535</v>
+        <v>37.15739794584949</v>
       </c>
       <c r="F6">
-        <v>43.01967673606224</v>
+        <v>42.96587055011352</v>
       </c>
       <c r="G6">
-        <v>34.84765410588421</v>
+        <v>34.88485367876306</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>33.8815215827926</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,13 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>29.31334766194161</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>91.53379382712598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>29.31108484192699</v>
+      </c>
+      <c r="M6">
+        <v>91.52225590519333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.222123922337967</v>
+        <v>4.221747616720115</v>
       </c>
       <c r="D7">
-        <v>7.257240367933064</v>
+        <v>7.244723032474282</v>
       </c>
       <c r="E7">
-        <v>38.53769651561149</v>
+        <v>38.53398118709269</v>
       </c>
       <c r="F7">
-        <v>45.53287964391756</v>
+        <v>45.47391340057787</v>
       </c>
       <c r="G7">
-        <v>36.95835895198727</v>
+        <v>36.99625910663141</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>35.95605548661656</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,13 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>30.35556785070143</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>94.76488375320872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>30.35269672466686</v>
+      </c>
+      <c r="M7">
+        <v>94.75098156294648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D8">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E8">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F8">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G8">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,13 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M8">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D9">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E9">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F9">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G9">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,13 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M9">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D10">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E10">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F10">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G10">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,13 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M10">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,22 +787,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D11">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E11">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F11">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G11">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,13 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M11">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D12">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E12">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F12">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G12">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,13 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M12">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D13">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E13">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F13">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G13">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,13 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M13">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D14">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E14">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F14">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G14">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,13 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M14">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D15">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E15">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F15">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G15">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,13 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M15">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D16">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E16">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F16">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G16">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,13 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M16">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,22 +1033,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D17">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E17">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F17">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G17">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,13 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M17">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D18">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E18">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F18">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G18">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,13 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M18">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D19">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E19">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F19">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G19">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,13 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M19">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D20">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E20">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F20">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G20">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,13 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M20">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D21">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E21">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F21">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G21">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,13 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M21">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D22">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E22">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F22">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G22">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,13 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M22">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D23">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E23">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F23">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G23">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,13 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M23">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D24">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E24">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F24">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G24">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,13 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>111.4162123329963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M24">
+        <v>111.3753178667585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.147180711946873</v>
+        <v>6.143066244375492</v>
       </c>
       <c r="D25">
-        <v>10.2418572158044</v>
+        <v>10.21883080203215</v>
       </c>
       <c r="E25">
-        <v>45.83792857277608</v>
+        <v>45.8233305903743</v>
       </c>
       <c r="F25">
-        <v>59.96904215321467</v>
+        <v>59.86399653028501</v>
       </c>
       <c r="G25">
-        <v>49.09503628030743</v>
+        <v>49.12323837314062</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>47.95725324762687</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>35.79337400455466</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>111.4162123329963</v>
+        <v>35.78255276423107</v>
+      </c>
+      <c r="M25">
+        <v>111.3753178667585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.014908060715393</v>
+        <v>8.357764253721069</v>
       </c>
       <c r="D2">
-        <v>11.55726331526985</v>
+        <v>11.28723242853369</v>
       </c>
       <c r="E2">
-        <v>48.77861606791234</v>
+        <v>5.520143497441487</v>
       </c>
       <c r="F2">
-        <v>66.15019514515753</v>
+        <v>101.5377331392965</v>
       </c>
       <c r="G2">
-        <v>54.43522423029056</v>
+        <v>1.789651471257622</v>
       </c>
       <c r="H2">
-        <v>53.24297547843637</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.856105282181707</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>37.93523890949226</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>117.8172617218931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>25.60720851682375</v>
+      </c>
+      <c r="O2">
+        <v>80.41946937652864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.021248063967723</v>
+        <v>7.502104192825507</v>
       </c>
       <c r="D3">
-        <v>8.485823774112045</v>
+        <v>10.15178452328536</v>
       </c>
       <c r="E3">
-        <v>41.71913050094596</v>
+        <v>5.570750019380326</v>
       </c>
       <c r="F3">
-        <v>51.54384832481818</v>
+        <v>91.43476079918487</v>
       </c>
       <c r="G3">
-        <v>42.10760218607538</v>
+        <v>1.857091234191211</v>
       </c>
       <c r="H3">
-        <v>40.99978918100952</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.446425370393818</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>32.74431022545591</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>102.1235125067305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.2256181799734</v>
+      </c>
+      <c r="O3">
+        <v>72.29278641609886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.225715106954164</v>
+        <v>7.006993399072024</v>
       </c>
       <c r="D4">
-        <v>7.250892564175366</v>
+        <v>9.50104569205468</v>
       </c>
       <c r="E4">
-        <v>38.55041315119669</v>
+        <v>5.607654759517957</v>
       </c>
       <c r="F4">
-        <v>45.50428471064139</v>
+        <v>85.67417952112213</v>
       </c>
       <c r="G4">
-        <v>37.02182740442221</v>
+        <v>1.893977106087868</v>
       </c>
       <c r="H4">
-        <v>35.981214096226</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.233938349450036</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.36510253465444</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>94.78937876810825</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.3359507766292</v>
+      </c>
+      <c r="O4">
+        <v>67.64743214800893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.940727616739224</v>
+        <v>6.808696226648047</v>
       </c>
       <c r="D5">
-        <v>6.807485311976054</v>
+        <v>9.241590111460271</v>
       </c>
       <c r="E5">
-        <v>37.35264697156701</v>
+        <v>5.623938074787532</v>
       </c>
       <c r="F5">
-        <v>43.31718502109771</v>
+        <v>83.38760152428108</v>
       </c>
       <c r="G5">
-        <v>35.18061622170428</v>
+        <v>1.908325617147324</v>
       </c>
       <c r="H5">
-        <v>34.17173673202981</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.154279705343254</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>29.45909652369959</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>91.98161059703175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>65.80052027661505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.895077548605038</v>
+        <v>6.775896549200685</v>
       </c>
       <c r="D6">
-        <v>6.736414209024111</v>
+        <v>9.198736987526893</v>
       </c>
       <c r="E6">
-        <v>37.15739794584949</v>
+        <v>5.62671249785055</v>
       </c>
       <c r="F6">
-        <v>42.96587055011352</v>
+        <v>83.01061913130835</v>
       </c>
       <c r="G6">
-        <v>34.88485367876306</v>
+        <v>1.910675884585392</v>
       </c>
       <c r="H6">
-        <v>33.8815215827926</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.141414087966755</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>29.31108484192699</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>91.52225590519333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962178</v>
+      </c>
+      <c r="O6">
+        <v>65.4958398777441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.221747616720115</v>
+        <v>7.004308958915511</v>
       </c>
       <c r="D7">
-        <v>7.244723032474282</v>
+        <v>9.497528949469061</v>
       </c>
       <c r="E7">
-        <v>38.53398118709269</v>
+        <v>5.607869539751084</v>
       </c>
       <c r="F7">
-        <v>45.47391340057787</v>
+        <v>85.64314192112033</v>
       </c>
       <c r="G7">
-        <v>36.99625910663141</v>
+        <v>1.894172953982281</v>
       </c>
       <c r="H7">
-        <v>35.95605548661656</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.232838691204861</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30.35269672466686</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>94.75098156294648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>67.62237489228204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.143066244375492</v>
+        <v>8.053019385943006</v>
       </c>
       <c r="D8">
-        <v>10.21883080203215</v>
+        <v>10.88114741775769</v>
       </c>
       <c r="E8">
-        <v>45.8233305903743</v>
+        <v>5.536203534037822</v>
       </c>
       <c r="F8">
-        <v>59.86399653028501</v>
+        <v>97.9202439515588</v>
       </c>
       <c r="G8">
-        <v>49.12323837314062</v>
+        <v>1.814219860514574</v>
       </c>
       <c r="H8">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.70434919177233</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>77.5121073235035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D9">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E9">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F9">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G9">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H9">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O9">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D10">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E10">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F10">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G10">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H10">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O10">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D11">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E11">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F11">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G11">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H11">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O11">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D12">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E12">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F12">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G12">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H12">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O12">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D13">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E13">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F13">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G13">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H13">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O13">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D14">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E14">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F14">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G14">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H14">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O14">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D15">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E15">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F15">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G15">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H15">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O15">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D16">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E16">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F16">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G16">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H16">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O16">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D17">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E17">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F17">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G17">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H17">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O17">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D18">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E18">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F18">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G18">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H18">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O18">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D19">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E19">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F19">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G19">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H19">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O19">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D20">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E20">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F20">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G20">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H20">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O20">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D21">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E21">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F21">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G21">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H21">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O21">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D22">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E22">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F22">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G22">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H22">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O22">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D23">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E23">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F23">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G23">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H23">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O23">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D24">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E24">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F24">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G24">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H24">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>111.3753178667585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O24">
+        <v>108.3821222041226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.143066244375492</v>
+        <v>11.22662856534649</v>
       </c>
       <c r="D25">
-        <v>10.21883080203215</v>
+        <v>15.24905633290287</v>
       </c>
       <c r="E25">
-        <v>45.8233305903743</v>
+        <v>5.48197430957461</v>
       </c>
       <c r="F25">
-        <v>59.86399653028501</v>
+        <v>136.416896114133</v>
       </c>
       <c r="G25">
-        <v>49.12323837314062</v>
+        <v>1.524952018514305</v>
       </c>
       <c r="H25">
-        <v>47.95725324762687</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.13921927699833</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>35.78255276423107</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>111.3753178667585</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O25">
+        <v>108.3821222041226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.357764253721069</v>
+        <v>7.216846383643231</v>
       </c>
       <c r="D2">
-        <v>11.28723242853369</v>
+        <v>3.735731398317101</v>
       </c>
       <c r="E2">
-        <v>5.520143497441487</v>
+        <v>11.44581585162829</v>
       </c>
       <c r="F2">
-        <v>101.5377331392965</v>
+        <v>20.39224374935441</v>
       </c>
       <c r="G2">
-        <v>1.789651471257622</v>
+        <v>2.060304200946641</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.856105282181707</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.78637386159299</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.93508714964214</v>
       </c>
       <c r="N2">
-        <v>25.60720851682375</v>
+        <v>11.45121557017311</v>
       </c>
       <c r="O2">
-        <v>80.41946937652864</v>
+        <v>15.81951193749454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.502104192825507</v>
+        <v>6.715673893363769</v>
       </c>
       <c r="D3">
-        <v>10.15178452328536</v>
+        <v>3.658376967424164</v>
       </c>
       <c r="E3">
-        <v>5.570750019380326</v>
+        <v>10.82341554617973</v>
       </c>
       <c r="F3">
-        <v>91.43476079918487</v>
+        <v>19.59976774093887</v>
       </c>
       <c r="G3">
-        <v>1.857091234191211</v>
+        <v>2.066466328572953</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.446425370393818</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.59958539074328</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.74997728730504</v>
       </c>
       <c r="N3">
-        <v>24.2256181799734</v>
+        <v>11.62610762836173</v>
       </c>
       <c r="O3">
-        <v>72.29278641609886</v>
+        <v>15.42620031260073</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.006993399072024</v>
+        <v>6.390927789203203</v>
       </c>
       <c r="D4">
-        <v>9.50104569205468</v>
+        <v>3.609789101493415</v>
       </c>
       <c r="E4">
-        <v>5.607654759517957</v>
+        <v>10.4373744479026</v>
       </c>
       <c r="F4">
-        <v>85.67417952112213</v>
+        <v>19.12050601812894</v>
       </c>
       <c r="G4">
-        <v>1.893977106087868</v>
+        <v>2.070359415739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.233938349450036</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.83038848011753</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.98311075792223</v>
       </c>
       <c r="N4">
-        <v>23.3359507766292</v>
+        <v>11.7367765419604</v>
       </c>
       <c r="O4">
-        <v>67.64743214800893</v>
+        <v>15.19862487078322</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.808696226648047</v>
+        <v>6.254272381246562</v>
       </c>
       <c r="D5">
-        <v>9.241590111460271</v>
+        <v>3.589731639915173</v>
       </c>
       <c r="E5">
-        <v>5.623938074787532</v>
+        <v>10.27926487571733</v>
       </c>
       <c r="F5">
-        <v>83.38760152428108</v>
+        <v>18.92729996977788</v>
       </c>
       <c r="G5">
-        <v>1.908325617147324</v>
+        <v>2.071974289587151</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.154279705343254</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.50674298631667</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.66068714442597</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>11.78270418588665</v>
       </c>
       <c r="O5">
-        <v>65.80052027661505</v>
+        <v>15.10940107553695</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.775896549200685</v>
+        <v>6.231318924432638</v>
       </c>
       <c r="D6">
-        <v>9.198736987526893</v>
+        <v>3.586386078001976</v>
       </c>
       <c r="E6">
-        <v>5.62671249785055</v>
+        <v>10.25296894504886</v>
       </c>
       <c r="F6">
-        <v>83.01061913130835</v>
+        <v>18.89535266663518</v>
       </c>
       <c r="G6">
-        <v>1.910675884585392</v>
+        <v>2.072244178605854</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.141414087966755</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.45238649279855</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.60654827734028</v>
       </c>
       <c r="N6">
-        <v>22.90084339962178</v>
+        <v>11.79038062871965</v>
       </c>
       <c r="O6">
-        <v>65.4958398777441</v>
+        <v>15.09479801484517</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.004308958915511</v>
+        <v>6.389102342505845</v>
       </c>
       <c r="D7">
-        <v>9.497528949469061</v>
+        <v>3.609519618964475</v>
       </c>
       <c r="E7">
-        <v>5.607869539751084</v>
+        <v>10.43524507686267</v>
       </c>
       <c r="F7">
-        <v>85.64314192112033</v>
+        <v>19.11789153394785</v>
       </c>
       <c r="G7">
-        <v>1.894172953982281</v>
+        <v>2.07038107834527</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.232838691204861</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.82606494565092</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.97880267617625</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>11.73739257595</v>
       </c>
       <c r="O7">
-        <v>67.62237489228204</v>
+        <v>15.19740732480951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.053019385943006</v>
+        <v>7.047552341635701</v>
       </c>
       <c r="D8">
-        <v>10.88114741775769</v>
+        <v>3.709296153553264</v>
       </c>
       <c r="E8">
-        <v>5.536203534037822</v>
+        <v>11.23211631419303</v>
       </c>
       <c r="F8">
-        <v>97.9202439515588</v>
+        <v>20.11762653918843</v>
       </c>
       <c r="G8">
-        <v>1.814219860514574</v>
+        <v>2.062406711739635</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.70434919177233</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.38556689718968</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.53455798976097</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>11.51083832977675</v>
       </c>
       <c r="O8">
-        <v>77.5121073235035</v>
+        <v>15.68102153000525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.22662856534649</v>
+        <v>8.205456380794764</v>
       </c>
       <c r="D9">
-        <v>15.24905633290287</v>
+        <v>3.895596208029652</v>
       </c>
       <c r="E9">
-        <v>5.48197430957461</v>
+        <v>12.75789143375249</v>
       </c>
       <c r="F9">
-        <v>136.416896114133</v>
+        <v>22.1260401490213</v>
       </c>
       <c r="G9">
-        <v>1.524952018514305</v>
+        <v>2.047595973279803</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.12347429919182</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.27763036447737</v>
       </c>
       <c r="N9">
-        <v>28.34722074380646</v>
+        <v>11.09253043818256</v>
       </c>
       <c r="O9">
-        <v>108.3821222041226</v>
+        <v>16.73872879552536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.22662856534649</v>
+        <v>8.977439514248667</v>
       </c>
       <c r="D10">
-        <v>15.24905633290287</v>
+        <v>4.025907017752805</v>
       </c>
       <c r="E10">
-        <v>5.48197430957461</v>
+        <v>14.05645919817716</v>
       </c>
       <c r="F10">
-        <v>136.416896114133</v>
+        <v>23.6192808305804</v>
       </c>
       <c r="G10">
-        <v>1.524952018514305</v>
+        <v>2.037155880753335</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.94227661972081</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.11065717267397</v>
       </c>
       <c r="N10">
-        <v>28.34722074380646</v>
+        <v>10.80099266525685</v>
       </c>
       <c r="O10">
-        <v>108.3821222041226</v>
+        <v>17.58074676872206</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.22662856534649</v>
+        <v>9.31212319866215</v>
       </c>
       <c r="D11">
-        <v>15.24905633290287</v>
+        <v>4.083604408918371</v>
       </c>
       <c r="E11">
-        <v>5.48197430957461</v>
+        <v>14.63327543405757</v>
       </c>
       <c r="F11">
-        <v>136.416896114133</v>
+        <v>24.30064820866788</v>
       </c>
       <c r="G11">
-        <v>1.524952018514305</v>
+        <v>2.032487123432815</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.72861324550953</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22.90630479024995</v>
       </c>
       <c r="N11">
-        <v>28.34722074380646</v>
+        <v>10.67182685370154</v>
       </c>
       <c r="O11">
-        <v>108.3821222041226</v>
+        <v>17.97754360977256</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.22662856534649</v>
+        <v>9.436537506647531</v>
       </c>
       <c r="D12">
-        <v>15.24905633290287</v>
+        <v>4.105213647307262</v>
       </c>
       <c r="E12">
-        <v>5.48197430957461</v>
+        <v>14.84897850638717</v>
       </c>
       <c r="F12">
-        <v>136.416896114133</v>
+        <v>24.55886318766072</v>
       </c>
       <c r="G12">
-        <v>1.524952018514305</v>
+        <v>2.030729400483924</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.02055030990871</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.20222406449965</v>
       </c>
       <c r="N12">
-        <v>28.34722074380646</v>
+        <v>10.62341895576553</v>
       </c>
       <c r="O12">
-        <v>108.3821222041226</v>
+        <v>18.12975593429407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.22662856534649</v>
+        <v>9.409845174243687</v>
       </c>
       <c r="D13">
-        <v>15.24905633290287</v>
+        <v>4.100570543581488</v>
       </c>
       <c r="E13">
-        <v>5.48197430957461</v>
+        <v>14.8026419506418</v>
       </c>
       <c r="F13">
-        <v>136.416896114133</v>
+        <v>24.50324449897936</v>
       </c>
       <c r="G13">
-        <v>1.524952018514305</v>
+        <v>2.031107524961413</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.95793457347256</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.13872961217351</v>
       </c>
       <c r="N13">
-        <v>28.34722074380646</v>
+        <v>10.63382187729509</v>
       </c>
       <c r="O13">
-        <v>108.3821222041226</v>
+        <v>18.09688765136294</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.22662856534649</v>
+        <v>9.322405108249365</v>
       </c>
       <c r="D14">
-        <v>15.24905633290287</v>
+        <v>4.085387079218501</v>
       </c>
       <c r="E14">
-        <v>5.48197430957461</v>
+        <v>14.65107526834837</v>
       </c>
       <c r="F14">
-        <v>136.416896114133</v>
+        <v>24.32188824088823</v>
       </c>
       <c r="G14">
-        <v>1.524952018514305</v>
+        <v>2.03234231748108</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.75274751806052</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.93075725590256</v>
       </c>
       <c r="N14">
-        <v>28.34722074380646</v>
+        <v>10.66783414417877</v>
       </c>
       <c r="O14">
-        <v>108.3821222041226</v>
+        <v>17.99002714892818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.22662856534649</v>
+        <v>9.268544498068595</v>
       </c>
       <c r="D15">
-        <v>15.24905633290287</v>
+        <v>4.076055238663034</v>
       </c>
       <c r="E15">
-        <v>5.48197430957461</v>
+        <v>14.55788555467797</v>
       </c>
       <c r="F15">
-        <v>136.416896114133</v>
+        <v>24.21082538988088</v>
       </c>
       <c r="G15">
-        <v>1.524952018514305</v>
+        <v>2.033099954640068</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.62630734077408</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.80267187801294</v>
       </c>
       <c r="N15">
-        <v>28.34722074380646</v>
+        <v>10.68873360077754</v>
       </c>
       <c r="O15">
-        <v>108.3821222041226</v>
+        <v>17.92482593355163</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.22662856534649</v>
+        <v>8.955239337105581</v>
       </c>
       <c r="D16">
-        <v>15.24905633290287</v>
+        <v>4.022103472679285</v>
       </c>
       <c r="E16">
-        <v>5.48197430957461</v>
+        <v>14.01837424485699</v>
       </c>
       <c r="F16">
-        <v>136.416896114133</v>
+        <v>23.57478406820746</v>
       </c>
       <c r="G16">
-        <v>1.524952018514305</v>
+        <v>2.03746250265411</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.89006756504171</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.05790084004356</v>
       </c>
       <c r="N16">
-        <v>28.34722074380646</v>
+        <v>10.80950406309865</v>
       </c>
       <c r="O16">
-        <v>108.3821222041226</v>
+        <v>17.55508968433221</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.22662856534649</v>
+        <v>8.758845864513324</v>
       </c>
       <c r="D17">
-        <v>15.24905633290287</v>
+        <v>3.988591761673738</v>
       </c>
       <c r="E17">
-        <v>5.48197430957461</v>
+        <v>13.68240583238701</v>
       </c>
       <c r="F17">
-        <v>136.416896114133</v>
+        <v>23.18504128130891</v>
       </c>
       <c r="G17">
-        <v>1.524952018514305</v>
+        <v>2.040158481160737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.42794292416657</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.59130368588846</v>
       </c>
       <c r="N17">
-        <v>28.34722074380646</v>
+        <v>10.88448233621981</v>
       </c>
       <c r="O17">
-        <v>108.3821222041226</v>
+        <v>17.33177173745462</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.22662856534649</v>
+        <v>8.644329841222252</v>
       </c>
       <c r="D18">
-        <v>15.24905633290287</v>
+        <v>3.969168488926514</v>
       </c>
       <c r="E18">
-        <v>5.48197430957461</v>
+        <v>13.48728936389932</v>
       </c>
       <c r="F18">
-        <v>136.416896114133</v>
+        <v>22.96107160646453</v>
       </c>
       <c r="G18">
-        <v>1.524952018514305</v>
+        <v>2.041716799618405</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.15827281170531</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.31932552100625</v>
       </c>
       <c r="N18">
-        <v>28.34722074380646</v>
+        <v>10.9279325514861</v>
       </c>
       <c r="O18">
-        <v>108.3821222041226</v>
+        <v>17.20462114250212</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.22662856534649</v>
+        <v>8.605288045850426</v>
       </c>
       <c r="D19">
-        <v>15.24905633290287</v>
+        <v>3.962567031626989</v>
       </c>
       <c r="E19">
-        <v>5.48197430957461</v>
+        <v>13.42090036697907</v>
       </c>
       <c r="F19">
-        <v>136.416896114133</v>
+        <v>22.8852774745809</v>
       </c>
       <c r="G19">
-        <v>1.524952018514305</v>
+        <v>2.042245774658322</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.06630076702968</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.22661598490682</v>
       </c>
       <c r="N19">
-        <v>28.34722074380646</v>
+        <v>10.94269963957401</v>
       </c>
       <c r="O19">
-        <v>108.3821222041226</v>
+        <v>17.16179363793137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.22662856534649</v>
+        <v>8.779912947640605</v>
       </c>
       <c r="D20">
-        <v>15.24905633290287</v>
+        <v>3.992174572100347</v>
       </c>
       <c r="E20">
-        <v>5.48197430957461</v>
+        <v>13.71836355606239</v>
       </c>
       <c r="F20">
-        <v>136.416896114133</v>
+        <v>23.22651023428286</v>
       </c>
       <c r="G20">
-        <v>1.524952018514305</v>
+        <v>2.039870705923732</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.47753674617207</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.64134590558925</v>
       </c>
       <c r="N20">
-        <v>28.34722074380646</v>
+        <v>10.87646712268448</v>
       </c>
       <c r="O20">
-        <v>108.3821222041226</v>
+        <v>17.35541039677322</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.22662856534649</v>
+        <v>9.348151021582622</v>
       </c>
       <c r="D21">
-        <v>15.24905633290287</v>
+        <v>4.089853421569149</v>
       </c>
       <c r="E21">
-        <v>5.48197430957461</v>
+        <v>14.69566691911705</v>
       </c>
       <c r="F21">
-        <v>136.416896114133</v>
+        <v>24.37515228826414</v>
       </c>
       <c r="G21">
-        <v>1.524952018514305</v>
+        <v>2.031979362478869</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.81317358652677</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>22.99198866026566</v>
       </c>
       <c r="N21">
-        <v>28.34722074380646</v>
+        <v>10.65783015290067</v>
       </c>
       <c r="O21">
-        <v>108.3821222041226</v>
+        <v>18.02136177777314</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.22662856534649</v>
+        <v>9.706011109593698</v>
       </c>
       <c r="D22">
-        <v>15.24905633290287</v>
+        <v>4.152291346896289</v>
       </c>
       <c r="E22">
-        <v>5.48197430957461</v>
+        <v>15.31858090498691</v>
       </c>
       <c r="F22">
-        <v>136.416896114133</v>
+        <v>25.126977839331</v>
       </c>
       <c r="G22">
-        <v>1.524952018514305</v>
+        <v>2.026880860257419</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.6521381475971</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.84344388655005</v>
       </c>
       <c r="N22">
-        <v>28.34722074380646</v>
+        <v>10.5178840974605</v>
       </c>
       <c r="O22">
-        <v>108.3821222041226</v>
+        <v>18.46798624699004</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.22662856534649</v>
+        <v>9.516234320880008</v>
       </c>
       <c r="D23">
-        <v>15.24905633290287</v>
+        <v>4.119098921836783</v>
       </c>
       <c r="E23">
-        <v>5.48197430957461</v>
+        <v>14.98751985390377</v>
       </c>
       <c r="F23">
-        <v>136.416896114133</v>
+        <v>24.7256360094189</v>
       </c>
       <c r="G23">
-        <v>1.524952018514305</v>
+        <v>2.029597106129883</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.20744773212915</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.39182515491214</v>
       </c>
       <c r="N23">
-        <v>28.34722074380646</v>
+        <v>10.59230308309763</v>
       </c>
       <c r="O23">
-        <v>108.3821222041226</v>
+        <v>18.22857745331025</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.22662856534649</v>
+        <v>8.770393527844202</v>
       </c>
       <c r="D24">
-        <v>15.24905633290287</v>
+        <v>3.990555271422505</v>
       </c>
       <c r="E24">
-        <v>5.48197430957461</v>
+        <v>13.70211319536414</v>
       </c>
       <c r="F24">
-        <v>136.416896114133</v>
+        <v>23.20776180502507</v>
       </c>
       <c r="G24">
-        <v>1.524952018514305</v>
+        <v>2.040000782955007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.45512780777723</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.61873343021585</v>
       </c>
       <c r="N24">
-        <v>28.34722074380646</v>
+        <v>10.88008972911169</v>
       </c>
       <c r="O24">
-        <v>108.3821222041226</v>
+        <v>17.34471950117936</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.22662856534649</v>
+        <v>7.906228487680174</v>
       </c>
       <c r="D25">
-        <v>15.24905633290287</v>
+        <v>3.846291994461815</v>
       </c>
       <c r="E25">
-        <v>5.48197430957461</v>
+        <v>12.34977325268014</v>
       </c>
       <c r="F25">
-        <v>136.416896114133</v>
+        <v>21.57888765694344</v>
       </c>
       <c r="G25">
-        <v>1.524952018514305</v>
+        <v>2.051520351581811</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.13921927699833</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.41686987198795</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.56799254717379</v>
       </c>
       <c r="N25">
-        <v>28.34722074380646</v>
+        <v>11.20292433911434</v>
       </c>
       <c r="O25">
-        <v>108.3821222041226</v>
+        <v>16.44105506719185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.216846383643231</v>
+        <v>4.919190342406841</v>
       </c>
       <c r="D2">
-        <v>3.735731398317101</v>
+        <v>4.492198819804734</v>
       </c>
       <c r="E2">
-        <v>11.44581585162829</v>
+        <v>11.10450525908647</v>
       </c>
       <c r="F2">
-        <v>20.39224374935441</v>
+        <v>24.03736573980291</v>
       </c>
       <c r="G2">
-        <v>2.060304200946641</v>
+        <v>3.620191562047249</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.78637386159299</v>
+        <v>12.25411080649266</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.93508714964214</v>
+        <v>14.95469571531774</v>
       </c>
       <c r="N2">
-        <v>11.45121557017311</v>
+        <v>17.10590391416503</v>
       </c>
       <c r="O2">
-        <v>15.81951193749454</v>
+        <v>21.33100859478309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.715673893363769</v>
+        <v>4.749640844105196</v>
       </c>
       <c r="D3">
-        <v>3.658376967424164</v>
+        <v>4.467701378385796</v>
       </c>
       <c r="E3">
-        <v>10.82341554617973</v>
+        <v>10.99872644801263</v>
       </c>
       <c r="F3">
-        <v>19.59976774093887</v>
+        <v>23.97770994788492</v>
       </c>
       <c r="G3">
-        <v>2.066466328572953</v>
+        <v>3.62250863713381</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.59958539074328</v>
+        <v>11.78661070194214</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.74997728730504</v>
+        <v>14.67708806620432</v>
       </c>
       <c r="N3">
-        <v>11.62610762836173</v>
+        <v>17.16135385502553</v>
       </c>
       <c r="O3">
-        <v>15.42620031260073</v>
+        <v>21.35098937871329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.390927789203203</v>
+        <v>4.643904877941972</v>
       </c>
       <c r="D4">
-        <v>3.609789101493415</v>
+        <v>4.452439006721589</v>
       </c>
       <c r="E4">
-        <v>10.4373744479026</v>
+        <v>10.93767655890509</v>
       </c>
       <c r="F4">
-        <v>19.12050601812894</v>
+        <v>23.94915712596292</v>
       </c>
       <c r="G4">
-        <v>2.070359415739</v>
+        <v>3.62400640022239</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.83038848011753</v>
+        <v>11.49145037029118</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.98311075792223</v>
+        <v>14.50747125100855</v>
       </c>
       <c r="N4">
-        <v>11.7367765419604</v>
+        <v>17.19724032626039</v>
       </c>
       <c r="O4">
-        <v>15.19862487078322</v>
+        <v>21.3696132621246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.254272381246562</v>
+        <v>4.600483853942342</v>
       </c>
       <c r="D5">
-        <v>3.589731639915173</v>
+        <v>4.446166120144294</v>
       </c>
       <c r="E5">
-        <v>10.27926487571733</v>
+        <v>10.91380462337898</v>
       </c>
       <c r="F5">
-        <v>18.92729996977788</v>
+        <v>23.93955875734424</v>
       </c>
       <c r="G5">
-        <v>2.071974289587151</v>
+        <v>3.624635690253007</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.50674298631667</v>
+        <v>11.36931213313382</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.66068714442597</v>
+        <v>14.43865730251306</v>
       </c>
       <c r="N5">
-        <v>11.78270418588665</v>
+        <v>17.21232812424528</v>
       </c>
       <c r="O5">
-        <v>15.10940107553695</v>
+        <v>21.37879584239701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.231318924432638</v>
+        <v>4.593256115459659</v>
       </c>
       <c r="D6">
-        <v>3.586386078001976</v>
+        <v>4.445121354032493</v>
       </c>
       <c r="E6">
-        <v>10.25296894504886</v>
+        <v>10.90990220079134</v>
       </c>
       <c r="F6">
-        <v>18.89535266663518</v>
+        <v>23.93808812715315</v>
       </c>
       <c r="G6">
-        <v>2.072244178605854</v>
+        <v>3.624741329115984</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.45238649279855</v>
+        <v>11.34892466140741</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.60654827734028</v>
+        <v>14.42725212546023</v>
       </c>
       <c r="N6">
-        <v>11.79038062871965</v>
+        <v>17.21486148454236</v>
       </c>
       <c r="O6">
-        <v>15.09479801484517</v>
+        <v>21.38041666481251</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.389102342505845</v>
+        <v>4.643320527103963</v>
       </c>
       <c r="D7">
-        <v>3.609519618964475</v>
+        <v>4.452354621501254</v>
       </c>
       <c r="E7">
-        <v>10.43524507686267</v>
+        <v>10.93735050630575</v>
       </c>
       <c r="F7">
-        <v>19.11789153394785</v>
+        <v>23.94901942435161</v>
       </c>
       <c r="G7">
-        <v>2.07038107834527</v>
+        <v>3.62401481028059</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.82606494565092</v>
+        <v>11.48981043921051</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.97880267617625</v>
+        <v>14.50654183417641</v>
       </c>
       <c r="N7">
-        <v>11.73739257595</v>
+        <v>17.19744192635295</v>
       </c>
       <c r="O7">
-        <v>15.19740732480951</v>
+        <v>21.36973065811992</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.047552341635701</v>
+        <v>4.861113011337875</v>
       </c>
       <c r="D8">
-        <v>3.709296153553264</v>
+        <v>4.483799246555555</v>
       </c>
       <c r="E8">
-        <v>11.23211631419303</v>
+        <v>11.06723991962503</v>
       </c>
       <c r="F8">
-        <v>20.11762653918843</v>
+        <v>24.0151248357711</v>
       </c>
       <c r="G8">
-        <v>2.062406711739635</v>
+        <v>3.620974946549825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.38556689718968</v>
+        <v>12.09470398726273</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.53455798976097</v>
+        <v>14.85886060418095</v>
       </c>
       <c r="N8">
-        <v>11.51083832977675</v>
+        <v>17.12464181934358</v>
       </c>
       <c r="O8">
-        <v>15.68102153000525</v>
+        <v>21.33657614632773</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.205456380794764</v>
+        <v>5.272163969915333</v>
       </c>
       <c r="D9">
-        <v>3.895596208029652</v>
+        <v>4.543615083202591</v>
       </c>
       <c r="E9">
-        <v>12.75789143375249</v>
+        <v>11.35162524044515</v>
       </c>
       <c r="F9">
-        <v>22.1260401490213</v>
+        <v>24.2084361706275</v>
       </c>
       <c r="G9">
-        <v>2.047595973279803</v>
+        <v>3.61560657214342</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.12347429919182</v>
+        <v>13.20949019163055</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.27763036447737</v>
+        <v>15.55222675023141</v>
       </c>
       <c r="N9">
-        <v>11.09253043818256</v>
+        <v>16.99643106993837</v>
       </c>
       <c r="O9">
-        <v>16.73872879552536</v>
+        <v>21.32217094293364</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.977439514248667</v>
+        <v>5.560695030314664</v>
       </c>
       <c r="D10">
-        <v>4.025907017752805</v>
+        <v>4.586311053666872</v>
       </c>
       <c r="E10">
-        <v>14.05645919817716</v>
+        <v>11.57681499954575</v>
       </c>
       <c r="F10">
-        <v>23.6192808305804</v>
+        <v>24.38856938935929</v>
       </c>
       <c r="G10">
-        <v>2.037155880753335</v>
+        <v>3.612019810874936</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.94227661972081</v>
+        <v>13.97685141343373</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.11065717267397</v>
+        <v>16.057734956447</v>
       </c>
       <c r="N10">
-        <v>10.80099266525685</v>
+        <v>16.91103612584481</v>
       </c>
       <c r="O10">
-        <v>17.58074676872206</v>
+        <v>21.34262951477648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.31212319866215</v>
+        <v>5.688376376451021</v>
       </c>
       <c r="D11">
-        <v>4.083604408918371</v>
+        <v>4.605436710552919</v>
       </c>
       <c r="E11">
-        <v>14.63327543405757</v>
+        <v>11.68236337076397</v>
       </c>
       <c r="F11">
-        <v>24.30064820866788</v>
+        <v>24.47858530007077</v>
       </c>
       <c r="G11">
-        <v>2.032487123432815</v>
+        <v>3.610464851669803</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.72861324550953</v>
+        <v>14.31333835451626</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.90630479024995</v>
+        <v>16.2857696544581</v>
       </c>
       <c r="N11">
-        <v>10.67182685370154</v>
+        <v>16.87408468600064</v>
       </c>
       <c r="O11">
-        <v>17.97754360977256</v>
+        <v>21.35869622154159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.436537506647531</v>
+        <v>5.736165685089585</v>
       </c>
       <c r="D12">
-        <v>4.105213647307262</v>
+        <v>4.612634163387087</v>
       </c>
       <c r="E12">
-        <v>14.84897850638717</v>
+        <v>11.72274149405374</v>
       </c>
       <c r="F12">
-        <v>24.55886318766072</v>
+        <v>24.51381157892769</v>
       </c>
       <c r="G12">
-        <v>2.030729400483924</v>
+        <v>3.609886990366725</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.02055030990871</v>
+        <v>14.43885120568859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.20222406449965</v>
+        <v>16.37175859021953</v>
       </c>
       <c r="N12">
-        <v>10.62341895576553</v>
+        <v>16.86036363540807</v>
       </c>
       <c r="O12">
-        <v>18.12975593429407</v>
+        <v>21.36575208017066</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.409845174243687</v>
+        <v>5.725899037290141</v>
       </c>
       <c r="D13">
-        <v>4.100570543581488</v>
+        <v>4.611086102001356</v>
       </c>
       <c r="E13">
-        <v>14.8026419506418</v>
+        <v>11.71402774963156</v>
       </c>
       <c r="F13">
-        <v>24.50324449897936</v>
+        <v>24.50617467161437</v>
       </c>
       <c r="G13">
-        <v>2.031107524961413</v>
+        <v>3.610010956251403</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.95793457347256</v>
+        <v>14.41190600819308</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.13872961217351</v>
+        <v>16.35325679852124</v>
       </c>
       <c r="N13">
-        <v>10.63382187729509</v>
+        <v>16.86330664054263</v>
       </c>
       <c r="O13">
-        <v>18.09688765136294</v>
+        <v>21.36418927317379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.322405108249365</v>
+        <v>5.692319521869635</v>
       </c>
       <c r="D14">
-        <v>4.085387079218501</v>
+        <v>4.606029764759489</v>
       </c>
       <c r="E14">
-        <v>14.65107526834837</v>
+        <v>11.6856773200186</v>
       </c>
       <c r="F14">
-        <v>24.32188824088823</v>
+        <v>24.48146068783195</v>
       </c>
       <c r="G14">
-        <v>2.03234231748108</v>
+        <v>3.610417091188098</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.75274751806052</v>
+        <v>14.32370310977156</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.93075725590256</v>
+        <v>16.29285176639052</v>
       </c>
       <c r="N14">
-        <v>10.66783414417877</v>
+        <v>16.87295040732916</v>
       </c>
       <c r="O14">
-        <v>17.99002714892818</v>
+        <v>21.35925724188664</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.268544498068595</v>
+        <v>5.67167675761683</v>
       </c>
       <c r="D15">
-        <v>4.076055238663034</v>
+        <v>4.60292668108201</v>
       </c>
       <c r="E15">
-        <v>14.55788555467797</v>
+        <v>11.66836402695403</v>
       </c>
       <c r="F15">
-        <v>24.21082538988088</v>
+        <v>24.4664703366279</v>
       </c>
       <c r="G15">
-        <v>2.033099954640068</v>
+        <v>3.610667287207165</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.62630734077408</v>
+        <v>14.26942522553713</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.80267187801294</v>
+        <v>16.25580220122743</v>
       </c>
       <c r="N15">
-        <v>10.68873360077754</v>
+        <v>16.87889284566552</v>
       </c>
       <c r="O15">
-        <v>17.92482593355163</v>
+        <v>21.35636275151903</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.955239337105581</v>
+        <v>5.552274707752786</v>
       </c>
       <c r="D16">
-        <v>4.022103472679285</v>
+        <v>4.585054973028118</v>
       </c>
       <c r="E16">
-        <v>14.01837424485699</v>
+        <v>11.5699765056471</v>
       </c>
       <c r="F16">
-        <v>23.57478406820746</v>
+        <v>24.38284728330247</v>
       </c>
       <c r="G16">
-        <v>2.03746250265411</v>
+        <v>3.612122969076978</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.89006756504171</v>
+        <v>13.95459926146707</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.05790084004356</v>
+        <v>16.04278617296535</v>
       </c>
       <c r="N16">
-        <v>10.80950406309865</v>
+        <v>16.91348905024089</v>
       </c>
       <c r="O16">
-        <v>17.55508968433221</v>
+        <v>21.34171554275282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.758845864513324</v>
+        <v>5.478075046220011</v>
       </c>
       <c r="D17">
-        <v>3.988591761673738</v>
+        <v>4.574013547264542</v>
       </c>
       <c r="E17">
-        <v>13.68240583238701</v>
+        <v>11.51038848834273</v>
       </c>
       <c r="F17">
-        <v>23.18504128130891</v>
+        <v>24.33360017595515</v>
       </c>
       <c r="G17">
-        <v>2.040158481160737</v>
+        <v>3.613035580055688</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.42794292416657</v>
+        <v>13.75816587072919</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.59130368588846</v>
+        <v>15.91155232748874</v>
       </c>
       <c r="N17">
-        <v>10.88448233621981</v>
+        <v>16.9351974720736</v>
       </c>
       <c r="O17">
-        <v>17.33177173745462</v>
+        <v>21.33446146426643</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.644329841222252</v>
+        <v>5.435063513641696</v>
       </c>
       <c r="D18">
-        <v>3.969168488926514</v>
+        <v>4.567634997818746</v>
       </c>
       <c r="E18">
-        <v>13.48728936389932</v>
+        <v>11.47640993457667</v>
       </c>
       <c r="F18">
-        <v>22.96107160646453</v>
+        <v>24.30603580234739</v>
       </c>
       <c r="G18">
-        <v>2.041716799618405</v>
+        <v>3.613567710346195</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.15827281170531</v>
+        <v>13.64400249746749</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.31932552100625</v>
+        <v>15.8358939316565</v>
       </c>
       <c r="N18">
-        <v>10.9279325514861</v>
+        <v>16.94786201227169</v>
       </c>
       <c r="O18">
-        <v>17.20462114250212</v>
+        <v>21.33092548288544</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.605288045850426</v>
+        <v>5.420444734511689</v>
       </c>
       <c r="D19">
-        <v>3.962567031626989</v>
+        <v>4.565470624530802</v>
       </c>
       <c r="E19">
-        <v>13.42090036697907</v>
+        <v>11.46495716632377</v>
       </c>
       <c r="F19">
-        <v>22.8852774745809</v>
+        <v>24.29683434539195</v>
       </c>
       <c r="G19">
-        <v>2.042245774658322</v>
+        <v>3.613749122436683</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.06630076702968</v>
+        <v>13.6051492396247</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.22661598490682</v>
+        <v>15.81024974314901</v>
       </c>
       <c r="N19">
-        <v>10.94269963957401</v>
+        <v>16.95218068026429</v>
       </c>
       <c r="O19">
-        <v>17.16179363793137</v>
+        <v>21.32983755018243</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.779912947640605</v>
+        <v>5.4860086376521</v>
       </c>
       <c r="D20">
-        <v>3.992174572100347</v>
+        <v>4.575191821301861</v>
       </c>
       <c r="E20">
-        <v>13.71836355606239</v>
+        <v>11.51670148473972</v>
       </c>
       <c r="F20">
-        <v>23.22651023428286</v>
+        <v>24.33876397594513</v>
       </c>
       <c r="G20">
-        <v>2.039870705923732</v>
+        <v>3.612937684175579</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.47753674617207</v>
+        <v>13.77919942017384</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.64134590558925</v>
+        <v>15.92554126493778</v>
       </c>
       <c r="N20">
-        <v>10.87646712268448</v>
+        <v>16.93286811297391</v>
       </c>
       <c r="O20">
-        <v>17.35541039677322</v>
+        <v>21.33516780999707</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.348151021582622</v>
+        <v>5.702198208564433</v>
       </c>
       <c r="D21">
-        <v>4.089853421569149</v>
+        <v>4.607516173717153</v>
       </c>
       <c r="E21">
-        <v>14.69566691911705</v>
+        <v>11.69399372583026</v>
       </c>
       <c r="F21">
-        <v>24.37515228826414</v>
+        <v>24.48868904988172</v>
       </c>
       <c r="G21">
-        <v>2.031979362478869</v>
+        <v>3.610297502303847</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.81317358652677</v>
+        <v>14.34966291521644</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.99198866026566</v>
+        <v>16.31060470174905</v>
       </c>
       <c r="N21">
-        <v>10.65783015290067</v>
+        <v>16.87011043328019</v>
       </c>
       <c r="O21">
-        <v>18.02136177777314</v>
+        <v>21.36067953426487</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.706011109593698</v>
+        <v>5.840203519346346</v>
       </c>
       <c r="D22">
-        <v>4.152291346896289</v>
+        <v>4.628378546235757</v>
       </c>
       <c r="E22">
-        <v>15.31858090498691</v>
+        <v>11.81223192488783</v>
       </c>
       <c r="F22">
-        <v>25.126977839331</v>
+        <v>24.59330228570424</v>
       </c>
       <c r="G22">
-        <v>2.026880860257419</v>
+        <v>3.608635894109601</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.6521381475971</v>
+        <v>14.71133969253713</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.84344388655005</v>
+        <v>16.56011409741731</v>
       </c>
       <c r="N22">
-        <v>10.5178840974605</v>
+        <v>16.83067770988318</v>
       </c>
       <c r="O22">
-        <v>18.46798624699004</v>
+        <v>21.3830160624081</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.516234320880008</v>
+        <v>5.766862400872416</v>
       </c>
       <c r="D23">
-        <v>4.119098921836783</v>
+        <v>4.617268771785588</v>
       </c>
       <c r="E23">
-        <v>14.98751985390377</v>
+        <v>11.74892198158065</v>
       </c>
       <c r="F23">
-        <v>24.7256360094189</v>
+        <v>24.53686945340028</v>
       </c>
       <c r="G23">
-        <v>2.029597106129883</v>
+        <v>3.609516897573751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.20744773212915</v>
+        <v>14.51935532059529</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.39182515491214</v>
+        <v>16.42717046530245</v>
       </c>
       <c r="N23">
-        <v>10.59230308309763</v>
+        <v>16.85157912539525</v>
       </c>
       <c r="O23">
-        <v>18.22857745331025</v>
+        <v>21.37057685481727</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.770393527844202</v>
+        <v>5.482422957377173</v>
       </c>
       <c r="D24">
-        <v>3.990555271422505</v>
+        <v>4.574659218997339</v>
       </c>
       <c r="E24">
-        <v>13.70211319536414</v>
+        <v>11.51384650594158</v>
       </c>
       <c r="F24">
-        <v>23.20776180502507</v>
+        <v>24.33642708894383</v>
       </c>
       <c r="G24">
-        <v>2.040000782955007</v>
+        <v>3.612981919666668</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.45512780777723</v>
+        <v>13.76969397986551</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.61873343021585</v>
+        <v>15.91921751475781</v>
       </c>
       <c r="N24">
-        <v>10.88008972911169</v>
+        <v>16.93392064272653</v>
       </c>
       <c r="O24">
-        <v>17.34471950117936</v>
+        <v>21.33484649463463</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.906228487680174</v>
+        <v>5.163086559012145</v>
       </c>
       <c r="D25">
-        <v>3.846291994461815</v>
+        <v>4.527643954848259</v>
       </c>
       <c r="E25">
-        <v>12.34977325268014</v>
+        <v>11.27169744463145</v>
       </c>
       <c r="F25">
-        <v>21.57888765694344</v>
+        <v>24.14938631533024</v>
       </c>
       <c r="G25">
-        <v>2.051520351581811</v>
+        <v>3.616995812161371</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.41686987198795</v>
+        <v>12.9164631402916</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.56799254717379</v>
+        <v>15.36495842309112</v>
       </c>
       <c r="N25">
-        <v>11.20292433911434</v>
+        <v>17.02956498327944</v>
       </c>
       <c r="O25">
-        <v>16.44105506719185</v>
+        <v>21.32062622070966</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.919190342406841</v>
+        <v>7.21684638364328</v>
       </c>
       <c r="D2">
-        <v>4.492198819804734</v>
+        <v>3.735731398317151</v>
       </c>
       <c r="E2">
-        <v>11.10450525908647</v>
+        <v>11.44581585162829</v>
       </c>
       <c r="F2">
-        <v>24.03736573980291</v>
+        <v>20.3922437493543</v>
       </c>
       <c r="G2">
-        <v>3.620191562047249</v>
+        <v>2.060304200946374</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.25411080649266</v>
+        <v>18.78637386159309</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.95469571531774</v>
+        <v>17.93508714964221</v>
       </c>
       <c r="N2">
-        <v>17.10590391416503</v>
+        <v>11.45121557017304</v>
       </c>
       <c r="O2">
-        <v>21.33100859478309</v>
+        <v>15.8195119374944</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749640844105196</v>
+        <v>6.715673893363697</v>
       </c>
       <c r="D3">
-        <v>4.467701378385796</v>
+        <v>3.658376967423973</v>
       </c>
       <c r="E3">
-        <v>10.99872644801263</v>
+        <v>10.82341554617972</v>
       </c>
       <c r="F3">
-        <v>23.97770994788492</v>
+        <v>19.59976774093881</v>
       </c>
       <c r="G3">
-        <v>3.62250863713381</v>
+        <v>2.06646632857322</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.78661070194214</v>
+        <v>17.59958539074333</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.67708806620432</v>
+        <v>16.74997728730508</v>
       </c>
       <c r="N3">
-        <v>17.16135385502553</v>
+        <v>11.62610762836169</v>
       </c>
       <c r="O3">
-        <v>21.35098937871329</v>
+        <v>15.42620031260063</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.643904877941972</v>
+        <v>6.39092778920322</v>
       </c>
       <c r="D4">
-        <v>4.452439006721589</v>
+        <v>3.609789101493596</v>
       </c>
       <c r="E4">
-        <v>10.93767655890509</v>
+        <v>10.43737444790263</v>
       </c>
       <c r="F4">
-        <v>23.94915712596292</v>
+        <v>19.1205060181288</v>
       </c>
       <c r="G4">
-        <v>3.62400640022239</v>
+        <v>2.070359415739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.49145037029118</v>
+        <v>16.83038848011762</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.50747125100855</v>
+        <v>15.98311075792229</v>
       </c>
       <c r="N4">
-        <v>17.19724032626039</v>
+        <v>11.73677654196033</v>
       </c>
       <c r="O4">
-        <v>21.3696132621246</v>
+        <v>15.19862487078311</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.600483853942342</v>
+        <v>6.254272381246601</v>
       </c>
       <c r="D5">
-        <v>4.446166120144294</v>
+        <v>3.589731639914997</v>
       </c>
       <c r="E5">
-        <v>10.91380462337898</v>
+        <v>10.27926487571735</v>
       </c>
       <c r="F5">
-        <v>23.93955875734424</v>
+        <v>18.92729996977778</v>
       </c>
       <c r="G5">
-        <v>3.624635690253007</v>
+        <v>2.071974289587284</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.36931213313382</v>
+        <v>16.50674298631677</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.43865730251306</v>
+        <v>15.660687144426</v>
       </c>
       <c r="N5">
-        <v>17.21232812424528</v>
+        <v>11.78270418588662</v>
       </c>
       <c r="O5">
-        <v>21.37879584239701</v>
+        <v>15.1094010755368</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.593256115459659</v>
+        <v>6.2313189244326</v>
       </c>
       <c r="D6">
-        <v>4.445121354032493</v>
+        <v>3.586386078002037</v>
       </c>
       <c r="E6">
-        <v>10.90990220079134</v>
+        <v>10.25296894504887</v>
       </c>
       <c r="F6">
-        <v>23.93808812715315</v>
+        <v>18.89535266663521</v>
       </c>
       <c r="G6">
-        <v>3.624741329115984</v>
+        <v>2.072244178606123</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.34892466140741</v>
+        <v>16.45238649279855</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.42725212546023</v>
+        <v>15.60654827734028</v>
       </c>
       <c r="N6">
-        <v>17.21486148454236</v>
+        <v>11.79038062871962</v>
       </c>
       <c r="O6">
-        <v>21.38041666481251</v>
+        <v>15.09479801484516</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.643320527103963</v>
+        <v>6.389102342505806</v>
       </c>
       <c r="D7">
-        <v>4.452354621501254</v>
+        <v>3.609519618964475</v>
       </c>
       <c r="E7">
-        <v>10.93735050630575</v>
+        <v>10.43524507686265</v>
       </c>
       <c r="F7">
-        <v>23.94901942435161</v>
+        <v>19.11789153394781</v>
       </c>
       <c r="G7">
-        <v>3.62401481028059</v>
+        <v>2.070381078345135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.48981043921051</v>
+        <v>16.82606494565095</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.50654183417641</v>
+        <v>15.97880267617629</v>
       </c>
       <c r="N7">
-        <v>17.19744192635295</v>
+        <v>11.73739257595</v>
       </c>
       <c r="O7">
-        <v>21.36973065811992</v>
+        <v>15.19740732480947</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861113011337875</v>
+        <v>7.047552341635637</v>
       </c>
       <c r="D8">
-        <v>4.483799246555555</v>
+        <v>3.709296153553165</v>
       </c>
       <c r="E8">
-        <v>11.06723991962503</v>
+        <v>11.23211631419303</v>
       </c>
       <c r="F8">
-        <v>24.0151248357711</v>
+        <v>20.11762653918838</v>
       </c>
       <c r="G8">
-        <v>3.620974946549825</v>
+        <v>2.062406711739233</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.09470398726273</v>
+        <v>18.38556689718977</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.85886060418095</v>
+        <v>17.53455798976103</v>
       </c>
       <c r="N8">
-        <v>17.12464181934358</v>
+        <v>11.51083832977672</v>
       </c>
       <c r="O8">
-        <v>21.33657614632773</v>
+        <v>15.68102153000516</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.272163969915333</v>
+        <v>8.20545638079478</v>
       </c>
       <c r="D9">
-        <v>4.543615083202591</v>
+        <v>3.895596208029591</v>
       </c>
       <c r="E9">
-        <v>11.35162524044515</v>
+        <v>12.75789143375251</v>
       </c>
       <c r="F9">
-        <v>24.2084361706275</v>
+        <v>22.12604014902129</v>
       </c>
       <c r="G9">
-        <v>3.61560657214342</v>
+        <v>2.047595973279534</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.20949019163055</v>
+        <v>21.12347429919186</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.55222675023141</v>
+        <v>20.27763036447738</v>
       </c>
       <c r="N9">
-        <v>16.99643106993837</v>
+        <v>11.09253043818253</v>
       </c>
       <c r="O9">
-        <v>21.32217094293364</v>
+        <v>16.73872879552535</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.560695030314664</v>
+        <v>8.977439514248736</v>
       </c>
       <c r="D10">
-        <v>4.586311053666872</v>
+        <v>4.025907017752751</v>
       </c>
       <c r="E10">
-        <v>11.57681499954575</v>
+        <v>14.0564591981772</v>
       </c>
       <c r="F10">
-        <v>24.38856938935929</v>
+        <v>23.6192808305804</v>
       </c>
       <c r="G10">
-        <v>3.612019810874936</v>
+        <v>2.037155880753335</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.97685141343373</v>
+        <v>22.94227661972083</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.057734956447</v>
+        <v>22.11065717267401</v>
       </c>
       <c r="N10">
-        <v>16.91103612584481</v>
+        <v>10.80099266525678</v>
       </c>
       <c r="O10">
-        <v>21.34262951477648</v>
+        <v>17.58074676872204</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.688376376451021</v>
+        <v>9.31212319866219</v>
       </c>
       <c r="D11">
-        <v>4.605436710552919</v>
+        <v>4.08360440891828</v>
       </c>
       <c r="E11">
-        <v>11.68236337076397</v>
+        <v>14.6332754340576</v>
       </c>
       <c r="F11">
-        <v>24.47858530007077</v>
+        <v>24.3006482086679</v>
       </c>
       <c r="G11">
-        <v>3.610464851669803</v>
+        <v>2.032487123432683</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.31333835451626</v>
+        <v>23.72861324550961</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.2857696544581</v>
+        <v>22.90630479025002</v>
       </c>
       <c r="N11">
-        <v>16.87408468600064</v>
+        <v>10.67182685370143</v>
       </c>
       <c r="O11">
-        <v>21.35869622154159</v>
+        <v>17.97754360977253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.736165685089585</v>
+        <v>9.436537506647531</v>
       </c>
       <c r="D12">
-        <v>4.612634163387087</v>
+        <v>4.105213647307246</v>
       </c>
       <c r="E12">
-        <v>11.72274149405374</v>
+        <v>14.84897850638722</v>
       </c>
       <c r="F12">
-        <v>24.51381157892769</v>
+        <v>24.55886318766072</v>
       </c>
       <c r="G12">
-        <v>3.609886990366725</v>
+        <v>2.030729400484057</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.43885120568859</v>
+        <v>24.02055030990876</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.37175859021953</v>
+        <v>23.2022240644997</v>
       </c>
       <c r="N12">
-        <v>16.86036363540807</v>
+        <v>10.62341895576553</v>
       </c>
       <c r="O12">
-        <v>21.36575208017066</v>
+        <v>18.12975593429407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.725899037290141</v>
+        <v>9.40984517424368</v>
       </c>
       <c r="D13">
-        <v>4.611086102001356</v>
+        <v>4.100570543581445</v>
       </c>
       <c r="E13">
-        <v>11.71402774963156</v>
+        <v>14.80264195064174</v>
       </c>
       <c r="F13">
-        <v>24.50617467161437</v>
+        <v>24.50324449897938</v>
       </c>
       <c r="G13">
-        <v>3.610010956251403</v>
+        <v>2.031107524961279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.41190600819308</v>
+        <v>23.95793457347263</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.35325679852124</v>
+        <v>23.13872961217355</v>
       </c>
       <c r="N13">
-        <v>16.86330664054263</v>
+        <v>10.63382187729499</v>
       </c>
       <c r="O13">
-        <v>21.36418927317379</v>
+        <v>18.09688765136291</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.692319521869635</v>
+        <v>9.32240510824942</v>
       </c>
       <c r="D14">
-        <v>4.606029764759489</v>
+        <v>4.085387079218603</v>
       </c>
       <c r="E14">
-        <v>11.6856773200186</v>
+        <v>14.65107526834839</v>
       </c>
       <c r="F14">
-        <v>24.48146068783195</v>
+        <v>24.32188824088823</v>
       </c>
       <c r="G14">
-        <v>3.610417091188098</v>
+        <v>2.032342317480946</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.32370310977156</v>
+        <v>23.75274751806057</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.29285176639052</v>
+        <v>22.93075725590261</v>
       </c>
       <c r="N14">
-        <v>16.87295040732916</v>
+        <v>10.66783414417877</v>
       </c>
       <c r="O14">
-        <v>21.35925724188664</v>
+        <v>17.99002714892817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.67167675761683</v>
+        <v>9.268544498068708</v>
       </c>
       <c r="D15">
-        <v>4.60292668108201</v>
+        <v>4.076055238662985</v>
       </c>
       <c r="E15">
-        <v>11.66836402695403</v>
+        <v>14.55788555467798</v>
       </c>
       <c r="F15">
-        <v>24.4664703366279</v>
+        <v>24.21082538988088</v>
       </c>
       <c r="G15">
-        <v>3.610667287207165</v>
+        <v>2.033099954639932</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.26942522553713</v>
+        <v>23.62630734077411</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.25580220122743</v>
+        <v>22.80267187801297</v>
       </c>
       <c r="N15">
-        <v>16.87889284566552</v>
+        <v>10.68873360077757</v>
       </c>
       <c r="O15">
-        <v>21.35636275151903</v>
+        <v>17.92482593355162</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.552274707752786</v>
+        <v>8.955239337105521</v>
       </c>
       <c r="D16">
-        <v>4.585054973028118</v>
+        <v>4.022103472679462</v>
       </c>
       <c r="E16">
-        <v>11.5699765056471</v>
+        <v>14.018374244857</v>
       </c>
       <c r="F16">
-        <v>24.38284728330247</v>
+        <v>23.57478406820744</v>
       </c>
       <c r="G16">
-        <v>3.612122969076978</v>
+        <v>2.03746250265411</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.95459926146707</v>
+        <v>22.89006756504176</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.04278617296535</v>
+        <v>22.05790084004358</v>
       </c>
       <c r="N16">
-        <v>16.91348905024089</v>
+        <v>10.80950406309865</v>
       </c>
       <c r="O16">
-        <v>21.34171554275282</v>
+        <v>17.5550896843322</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.478075046220011</v>
+        <v>8.758845864513367</v>
       </c>
       <c r="D17">
-        <v>4.574013547264542</v>
+        <v>3.98859176167386</v>
       </c>
       <c r="E17">
-        <v>11.51038848834273</v>
+        <v>13.68240583238705</v>
       </c>
       <c r="F17">
-        <v>24.33360017595515</v>
+        <v>23.18504128130887</v>
       </c>
       <c r="G17">
-        <v>3.613035580055688</v>
+        <v>2.040158481160737</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.75816587072919</v>
+        <v>22.42794292416655</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.91155232748874</v>
+        <v>21.59130368588847</v>
       </c>
       <c r="N17">
-        <v>16.9351974720736</v>
+        <v>10.88448233621981</v>
       </c>
       <c r="O17">
-        <v>21.33446146426643</v>
+        <v>17.33177173745458</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.435063513641696</v>
+        <v>8.6443298412222</v>
       </c>
       <c r="D18">
-        <v>4.567634997818746</v>
+        <v>3.969168488926593</v>
       </c>
       <c r="E18">
-        <v>11.47640993457667</v>
+        <v>13.4872893638993</v>
       </c>
       <c r="F18">
-        <v>24.30603580234739</v>
+        <v>22.96107160646451</v>
       </c>
       <c r="G18">
-        <v>3.613567710346195</v>
+        <v>2.041716799618674</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.64400249746749</v>
+        <v>22.15827281170524</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.8358939316565</v>
+        <v>21.3193255210062</v>
       </c>
       <c r="N18">
-        <v>16.94786201227169</v>
+        <v>10.92793255148614</v>
       </c>
       <c r="O18">
-        <v>21.33092548288544</v>
+        <v>17.20462114250213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.420444734511689</v>
+        <v>8.605288045850546</v>
       </c>
       <c r="D19">
-        <v>4.565470624530802</v>
+        <v>3.962567031626938</v>
       </c>
       <c r="E19">
-        <v>11.46495716632377</v>
+        <v>13.42090036697906</v>
       </c>
       <c r="F19">
-        <v>24.29683434539195</v>
+        <v>22.88527747458088</v>
       </c>
       <c r="G19">
-        <v>3.613749122436683</v>
+        <v>2.042245774658457</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.6051492396247</v>
+        <v>22.0663007670298</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.81024974314901</v>
+        <v>21.22661598490686</v>
       </c>
       <c r="N19">
-        <v>16.95218068026429</v>
+        <v>10.94269963957394</v>
       </c>
       <c r="O19">
-        <v>21.32983755018243</v>
+        <v>17.16179363793129</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.4860086376521</v>
+        <v>8.779912947640605</v>
       </c>
       <c r="D20">
-        <v>4.575191821301861</v>
+        <v>3.992174572100164</v>
       </c>
       <c r="E20">
-        <v>11.51670148473972</v>
+        <v>13.71836355606238</v>
       </c>
       <c r="F20">
-        <v>24.33876397594513</v>
+        <v>23.22651023428292</v>
       </c>
       <c r="G20">
-        <v>3.612937684175579</v>
+        <v>2.039870705923867</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.77919942017384</v>
+        <v>22.47753674617208</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.92554126493778</v>
+        <v>21.64134590558924</v>
       </c>
       <c r="N20">
-        <v>16.93286811297391</v>
+        <v>10.87646712268451</v>
       </c>
       <c r="O20">
-        <v>21.33516780999707</v>
+        <v>17.35541039677325</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.702198208564433</v>
+        <v>9.348151021582623</v>
       </c>
       <c r="D21">
-        <v>4.607516173717153</v>
+        <v>4.08985342156912</v>
       </c>
       <c r="E21">
-        <v>11.69399372583026</v>
+        <v>14.69566691911705</v>
       </c>
       <c r="F21">
-        <v>24.48868904988172</v>
+        <v>24.37515228826411</v>
       </c>
       <c r="G21">
-        <v>3.610297502303847</v>
+        <v>2.031979362478735</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.34966291521644</v>
+        <v>23.81317358652676</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.31060470174905</v>
+        <v>22.99198866026567</v>
       </c>
       <c r="N21">
-        <v>16.87011043328019</v>
+        <v>10.65783015290064</v>
       </c>
       <c r="O21">
-        <v>21.36067953426487</v>
+        <v>18.02136177777309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.840203519346346</v>
+        <v>9.706011109593698</v>
       </c>
       <c r="D22">
-        <v>4.628378546235757</v>
+        <v>4.152291346896338</v>
       </c>
       <c r="E22">
-        <v>11.81223192488783</v>
+        <v>15.31858090498686</v>
       </c>
       <c r="F22">
-        <v>24.59330228570424</v>
+        <v>25.12697783933099</v>
       </c>
       <c r="G22">
-        <v>3.608635894109601</v>
+        <v>2.026880860257283</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.71133969253713</v>
+        <v>24.65213814759719</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.56011409741731</v>
+        <v>23.84344388655009</v>
       </c>
       <c r="N22">
-        <v>16.83067770988318</v>
+        <v>10.5178840974605</v>
       </c>
       <c r="O22">
-        <v>21.3830160624081</v>
+        <v>18.46798624699</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.766862400872416</v>
+        <v>9.516234320880084</v>
       </c>
       <c r="D23">
-        <v>4.617268771785588</v>
+        <v>4.119098921836789</v>
       </c>
       <c r="E23">
-        <v>11.74892198158065</v>
+        <v>14.98751985390378</v>
       </c>
       <c r="F23">
-        <v>24.53686945340028</v>
+        <v>24.72563600941889</v>
       </c>
       <c r="G23">
-        <v>3.609516897573751</v>
+        <v>2.029597106129747</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.51935532059529</v>
+        <v>24.20744773212915</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.42717046530245</v>
+        <v>23.39182515491215</v>
       </c>
       <c r="N23">
-        <v>16.85157912539525</v>
+        <v>10.5923030830976</v>
       </c>
       <c r="O23">
-        <v>21.37057685481727</v>
+        <v>18.22857745331022</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.482422957377173</v>
+        <v>8.770393527844277</v>
       </c>
       <c r="D24">
-        <v>4.574659218997339</v>
+        <v>3.990555271422711</v>
       </c>
       <c r="E24">
-        <v>11.51384650594158</v>
+        <v>13.70211319536414</v>
       </c>
       <c r="F24">
-        <v>24.33642708894383</v>
+        <v>23.20776180502502</v>
       </c>
       <c r="G24">
-        <v>3.612981919666668</v>
+        <v>2.040000782954874</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.76969397986551</v>
+        <v>22.45512780777728</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.91921751475781</v>
+        <v>21.61873343021589</v>
       </c>
       <c r="N24">
-        <v>16.93392064272653</v>
+        <v>10.88008972911165</v>
       </c>
       <c r="O24">
-        <v>21.33484649463463</v>
+        <v>17.34471950117931</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.163086559012145</v>
+        <v>7.906228487680177</v>
       </c>
       <c r="D25">
-        <v>4.527643954848259</v>
+        <v>3.846291994461769</v>
       </c>
       <c r="E25">
-        <v>11.27169744463145</v>
+        <v>12.34977325268014</v>
       </c>
       <c r="F25">
-        <v>24.14938631533024</v>
+        <v>21.57888765694346</v>
       </c>
       <c r="G25">
-        <v>3.616995812161371</v>
+        <v>2.051520351581813</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.9164631402916</v>
+        <v>20.41686987198792</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.36495842309112</v>
+        <v>19.56799254717378</v>
       </c>
       <c r="N25">
-        <v>17.02956498327944</v>
+        <v>11.20292433911434</v>
       </c>
       <c r="O25">
-        <v>21.32062622070966</v>
+        <v>16.44105506719187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.21684638364328</v>
+        <v>4.519722647424238</v>
       </c>
       <c r="D2">
-        <v>3.735731398317151</v>
+        <v>7.307807560737759</v>
       </c>
       <c r="E2">
-        <v>11.44581585162829</v>
+        <v>12.66081514364212</v>
       </c>
       <c r="F2">
-        <v>20.3922437493543</v>
+        <v>30.31688064695337</v>
       </c>
       <c r="G2">
-        <v>2.060304200946374</v>
+        <v>38.54121147532175</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.926668092492478</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.538174935345003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.38123682252859</v>
       </c>
       <c r="K2">
-        <v>18.78637386159309</v>
+        <v>20.44228730395645</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.021399430520356</v>
       </c>
       <c r="M2">
-        <v>17.93508714964221</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.45121557017304</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.8195119374944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25.60720851682247</v>
+      </c>
+      <c r="Q2">
+        <v>21.15775880028378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.715673893363697</v>
+        <v>4.347427534115364</v>
       </c>
       <c r="D3">
-        <v>3.658376967423973</v>
+        <v>7.104906290544577</v>
       </c>
       <c r="E3">
-        <v>10.82341554617972</v>
+        <v>12.17962886786708</v>
       </c>
       <c r="F3">
-        <v>19.59976774093881</v>
+        <v>28.84961989901598</v>
       </c>
       <c r="G3">
-        <v>2.06646632857322</v>
+        <v>36.32412618678379</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.673051119337258</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.330131604405933</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.99897374131939</v>
       </c>
       <c r="K3">
-        <v>17.59958539074333</v>
+        <v>19.53043749353226</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.789278927279263</v>
       </c>
       <c r="M3">
-        <v>16.74997728730508</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.62610762836169</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.42620031260063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>20.1903383278825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.39092778920322</v>
+        <v>4.234654983877912</v>
       </c>
       <c r="D4">
-        <v>3.609789101493596</v>
+        <v>6.978580858296042</v>
       </c>
       <c r="E4">
-        <v>10.43737444790263</v>
+        <v>11.87416265665414</v>
       </c>
       <c r="F4">
-        <v>19.1205060181288</v>
+        <v>27.91393401379202</v>
       </c>
       <c r="G4">
-        <v>2.070359415739</v>
+        <v>34.89583133621997</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.511482359025667</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.1977737372058</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.75901139027611</v>
       </c>
       <c r="K4">
-        <v>16.83038848011762</v>
+        <v>18.94862209637481</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.642285285474204</v>
       </c>
       <c r="M4">
-        <v>15.98311075792229</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.73677654196033</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.19862487078311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>19.57491749869028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.254272381246601</v>
+        <v>4.178922072210154</v>
       </c>
       <c r="D5">
-        <v>3.589731639914997</v>
+        <v>6.92805557683023</v>
       </c>
       <c r="E5">
-        <v>10.27926487571735</v>
+        <v>11.74766461927602</v>
       </c>
       <c r="F5">
-        <v>18.92729996977778</v>
+        <v>27.51526255890964</v>
       </c>
       <c r="G5">
-        <v>2.071974289587284</v>
+        <v>34.28071907347151</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.44377220053347</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.142310582547109</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.65675040495501</v>
       </c>
       <c r="K5">
-        <v>16.50674298631677</v>
+        <v>18.69535250262084</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.580935494739351</v>
       </c>
       <c r="M5">
-        <v>15.660687144426</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.78270418588662</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.1094010755368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>19.31133451773852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.2313189244326</v>
+        <v>4.159796188957434</v>
       </c>
       <c r="D6">
-        <v>3.586386078002037</v>
+        <v>6.921292107665759</v>
       </c>
       <c r="E6">
-        <v>10.25296894504887</v>
+        <v>11.72701449500819</v>
       </c>
       <c r="F6">
-        <v>18.89535266663521</v>
+        <v>27.43752332587145</v>
       </c>
       <c r="G6">
-        <v>2.072244178606123</v>
+        <v>34.15726942183642</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.431978357372586</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.132742068922672</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.63569124368268</v>
       </c>
       <c r="K6">
-        <v>16.45238649279855</v>
+        <v>18.63961764840187</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.570242991563893</v>
       </c>
       <c r="M6">
-        <v>15.60654827734028</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.79038062871962</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.09479801484516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>19.25785039557325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.389102342505806</v>
+        <v>4.207451724529395</v>
       </c>
       <c r="D7">
-        <v>3.609519618964475</v>
+        <v>6.982364745008425</v>
       </c>
       <c r="E7">
-        <v>10.43524507686265</v>
+        <v>11.8738155185136</v>
       </c>
       <c r="F7">
-        <v>19.11789153394781</v>
+        <v>27.8789094913245</v>
       </c>
       <c r="G7">
-        <v>2.070381078345135</v>
+        <v>34.83319949450816</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.509331974401679</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.196052906946841</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.74680055311868</v>
       </c>
       <c r="K7">
-        <v>16.82606494565095</v>
+        <v>18.90924514918458</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.640274082110205</v>
       </c>
       <c r="M7">
-        <v>15.97880267617629</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.73739257595</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.19740732480947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>19.54605469707469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.047552341635637</v>
+        <v>4.428101654602861</v>
       </c>
       <c r="D8">
-        <v>3.709296153553165</v>
+        <v>7.243968043214331</v>
       </c>
       <c r="E8">
-        <v>11.23211631419303</v>
+        <v>12.49876493274771</v>
       </c>
       <c r="F8">
-        <v>20.11762653918838</v>
+        <v>29.78132784740779</v>
       </c>
       <c r="G8">
-        <v>2.062406711739233</v>
+        <v>37.72370846221663</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.838829115723206</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.46593536570085</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.23679384706917</v>
       </c>
       <c r="K8">
-        <v>18.38556689718977</v>
+        <v>20.08738559332383</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.940809688414567</v>
       </c>
       <c r="M8">
-        <v>17.53455798976103</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.51083832977672</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.68102153000516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>20.79703856493605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.20545638079478</v>
+        <v>4.849870644588589</v>
       </c>
       <c r="D9">
-        <v>3.895596208029591</v>
+        <v>7.733633555445356</v>
       </c>
       <c r="E9">
-        <v>12.75789143375251</v>
+        <v>13.63900492401349</v>
       </c>
       <c r="F9">
-        <v>22.12604014902129</v>
+        <v>33.27043765949026</v>
       </c>
       <c r="G9">
-        <v>2.047595973279534</v>
+        <v>42.93557038666832</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.441772263829475</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.961657398805476</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.16955346287225</v>
       </c>
       <c r="K9">
-        <v>21.12347429919186</v>
+        <v>22.27358690696962</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.495290327956674</v>
       </c>
       <c r="M9">
-        <v>20.27763036447738</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.09253043818253</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.73872879552535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>23.11169758124459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.977439514248736</v>
+        <v>5.120854383397307</v>
       </c>
       <c r="D10">
-        <v>4.025907017752751</v>
+        <v>8.002280292140494</v>
       </c>
       <c r="E10">
-        <v>14.0564591981772</v>
+        <v>14.20998953413601</v>
       </c>
       <c r="F10">
-        <v>23.6192808305804</v>
+        <v>35.4395484157061</v>
       </c>
       <c r="G10">
-        <v>2.037155880753335</v>
+        <v>46.19750822928484</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.83930191537742</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.298031492654233</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.77255803241232</v>
       </c>
       <c r="K10">
-        <v>22.94227661972083</v>
+        <v>23.6594110611086</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.76993162204108</v>
       </c>
       <c r="M10">
-        <v>22.11065717267401</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.80099266525678</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.58074676872204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>24.58271440969758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.31212319866219</v>
+        <v>5.266319076653619</v>
       </c>
       <c r="D11">
-        <v>4.08360440891828</v>
+        <v>7.440892411619865</v>
       </c>
       <c r="E11">
-        <v>14.6332754340576</v>
+        <v>12.68713148576</v>
       </c>
       <c r="F11">
-        <v>24.3006482086679</v>
+        <v>34.71355580694231</v>
       </c>
       <c r="G11">
-        <v>2.032487123432683</v>
+        <v>45.81436970941595</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.358468455651082</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.387184768813244</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.64678901324935</v>
       </c>
       <c r="K11">
-        <v>23.72861324550961</v>
+        <v>23.50638827792992</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.005596398210809</v>
       </c>
       <c r="M11">
-        <v>22.90630479025002</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.67182685370143</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.97754360977253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>24.35157468785918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.436537506647531</v>
+        <v>5.381772547683729</v>
       </c>
       <c r="D12">
-        <v>4.105213647307246</v>
+        <v>6.922668124546871</v>
       </c>
       <c r="E12">
-        <v>14.84897850638722</v>
+        <v>11.36959775988133</v>
       </c>
       <c r="F12">
-        <v>24.55886318766072</v>
+        <v>33.66865388575081</v>
       </c>
       <c r="G12">
-        <v>2.030729400484057</v>
+        <v>44.86930696410737</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.257902949592759</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.396939287205011</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.423328214651</v>
       </c>
       <c r="K12">
-        <v>24.02055030990876</v>
+        <v>23.12838413575777</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.380358654581452</v>
       </c>
       <c r="M12">
-        <v>23.2022240644997</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.62341895576553</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.12975593429407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>23.87326389776982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.40984517424368</v>
+        <v>5.448221288232816</v>
       </c>
       <c r="D13">
-        <v>4.100570543581445</v>
+        <v>6.41199595781608</v>
       </c>
       <c r="E13">
-        <v>14.80264195064174</v>
+        <v>10.14955092305602</v>
       </c>
       <c r="F13">
-        <v>24.50324449897938</v>
+        <v>32.24884814361523</v>
       </c>
       <c r="G13">
-        <v>2.031107524961279</v>
+        <v>43.33811157862621</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.323709677876105</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.345683159069692</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.09173593703872</v>
       </c>
       <c r="K13">
-        <v>23.95793457347263</v>
+        <v>22.49826762930805</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.836789230722728</v>
       </c>
       <c r="M13">
-        <v>23.13872961217355</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.63382187729499</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.09688765136291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>23.13025899735383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.32240510824942</v>
+        <v>5.466852153501431</v>
       </c>
       <c r="D14">
-        <v>4.085387079218603</v>
+        <v>6.066066251151072</v>
       </c>
       <c r="E14">
-        <v>14.65107526834839</v>
+        <v>9.384396217755135</v>
       </c>
       <c r="F14">
-        <v>24.32188824088823</v>
+        <v>31.06064214316276</v>
       </c>
       <c r="G14">
-        <v>2.032342317480946</v>
+        <v>41.96653714358237</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.136812813746371</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.28252399430862</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.80494773798123</v>
       </c>
       <c r="K14">
-        <v>23.75274751806057</v>
+        <v>21.92700769371862</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.519479156196247</v>
       </c>
       <c r="M14">
-        <v>22.93075725590261</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.66783414417877</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.99002714892817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>22.47530479195411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.268544498068708</v>
+        <v>5.449010401219994</v>
       </c>
       <c r="D15">
-        <v>4.076055238662985</v>
+        <v>5.982411488808818</v>
       </c>
       <c r="E15">
-        <v>14.55788555467798</v>
+        <v>9.208710425743353</v>
       </c>
       <c r="F15">
-        <v>24.21082538988088</v>
+        <v>30.68022821592259</v>
       </c>
       <c r="G15">
-        <v>2.033099954639932</v>
+        <v>41.48643440537166</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.321821972627383</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.253600839448454</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.708587738122</v>
       </c>
       <c r="K15">
-        <v>23.62630734077411</v>
+        <v>21.7215686835075</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.449384127029127</v>
       </c>
       <c r="M15">
-        <v>22.80267187801297</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.68873360077757</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.92482593355162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>22.25030502518434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.955239337105521</v>
+        <v>5.311036311532495</v>
       </c>
       <c r="D16">
-        <v>4.022103472679462</v>
+        <v>5.961450904245329</v>
       </c>
       <c r="E16">
-        <v>14.018374244857</v>
+        <v>9.16789112602093</v>
       </c>
       <c r="F16">
-        <v>23.57478406820744</v>
+        <v>29.95776578792887</v>
       </c>
       <c r="G16">
-        <v>2.03746250265411</v>
+        <v>40.30306048592778</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.034799250220786</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.121818322418702</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.50119618464348</v>
       </c>
       <c r="K16">
-        <v>22.89006756504176</v>
+        <v>21.21499826530987</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.427228663130838</v>
       </c>
       <c r="M16">
-        <v>22.05790084004358</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.80950406309865</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.5550896843322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>21.72815798950137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.758845864513367</v>
+        <v>5.191371775545014</v>
       </c>
       <c r="D17">
-        <v>3.98859176167386</v>
+        <v>6.127290081627468</v>
       </c>
       <c r="E17">
-        <v>13.68240583238705</v>
+        <v>9.525736606317782</v>
       </c>
       <c r="F17">
-        <v>23.18504128130887</v>
+        <v>30.0557592016008</v>
       </c>
       <c r="G17">
-        <v>2.040158481160737</v>
+        <v>40.14557771808001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.331728794209765</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.053713458894434</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.49803456861111</v>
       </c>
       <c r="K17">
-        <v>22.42794292416655</v>
+        <v>21.13656151799043</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.566541176805075</v>
       </c>
       <c r="M17">
-        <v>21.59130368588847</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>10.88448233621981</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.33177173745458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>21.68512768351036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.6443298412222</v>
+        <v>5.102479203312315</v>
       </c>
       <c r="D18">
-        <v>3.969168488926593</v>
+        <v>6.491154096569868</v>
       </c>
       <c r="E18">
-        <v>13.4872893638993</v>
+        <v>10.38028147987559</v>
       </c>
       <c r="F18">
-        <v>22.96107160646451</v>
+        <v>30.89423532049386</v>
       </c>
       <c r="G18">
-        <v>2.041716799618674</v>
+        <v>40.902824716861</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.265796651949536</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.034927290860292</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.67750753234648</v>
       </c>
       <c r="K18">
-        <v>22.15827281170524</v>
+        <v>21.44637969919007</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.930975879163169</v>
       </c>
       <c r="M18">
-        <v>21.3193255210062</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>10.92793255148614</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.20462114250213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>22.06957930661831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.605288045850546</v>
+        <v>5.00609540676411</v>
       </c>
       <c r="D19">
-        <v>3.962567031626938</v>
+        <v>7.018465303005391</v>
       </c>
       <c r="E19">
-        <v>13.42090036697906</v>
+        <v>11.69177447164875</v>
       </c>
       <c r="F19">
-        <v>22.88527747458088</v>
+        <v>32.20147735091465</v>
       </c>
       <c r="G19">
-        <v>2.042245774658457</v>
+        <v>42.23853411675785</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.212665838839389</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.060993780580125</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.96869606600076</v>
       </c>
       <c r="K19">
-        <v>22.0663007670298</v>
+        <v>21.98124820118898</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.531986985402225</v>
       </c>
       <c r="M19">
-        <v>21.22661598490686</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.94269963957394</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.16179363793129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>22.71993387916185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.779912947640605</v>
+        <v>4.981771967471118</v>
       </c>
       <c r="D20">
-        <v>3.992174572100164</v>
+        <v>7.941063035199587</v>
       </c>
       <c r="E20">
-        <v>13.71836355606238</v>
+        <v>14.05669284888873</v>
       </c>
       <c r="F20">
-        <v>23.22651023428292</v>
+        <v>34.79756072402751</v>
       </c>
       <c r="G20">
-        <v>2.039870705923867</v>
+        <v>45.21901827115526</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.731301518293598</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.209690713506459</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.58520340146873</v>
       </c>
       <c r="K20">
-        <v>22.47753674617208</v>
+        <v>23.20637757454996</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.690971783283485</v>
       </c>
       <c r="M20">
-        <v>21.64134590558924</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.87646712268451</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.35541039677325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>24.1344807056566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.348151021582623</v>
+        <v>5.186458656891237</v>
       </c>
       <c r="D21">
-        <v>4.08985342156912</v>
+        <v>8.26633810687072</v>
       </c>
       <c r="E21">
-        <v>14.69566691911705</v>
+        <v>14.80715648546006</v>
       </c>
       <c r="F21">
-        <v>24.37515228826411</v>
+        <v>36.71314854151689</v>
       </c>
       <c r="G21">
-        <v>2.031979362478735</v>
+        <v>47.96100934981882</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.059495640520645</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.473301818133156</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.11084572896952</v>
       </c>
       <c r="K21">
-        <v>23.81317358652676</v>
+        <v>24.38094686516103</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.062614002122363</v>
       </c>
       <c r="M21">
-        <v>22.99198866026567</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.65783015290064</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.02136177777309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>25.39124414618006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.706011109593698</v>
+        <v>5.344590213697274</v>
       </c>
       <c r="D22">
-        <v>4.152291346896338</v>
+        <v>8.429523554396056</v>
       </c>
       <c r="E22">
-        <v>15.31858090498686</v>
+        <v>15.17580676059627</v>
       </c>
       <c r="F22">
-        <v>25.12697783933099</v>
+        <v>37.85861688955978</v>
       </c>
       <c r="G22">
-        <v>2.026880860257283</v>
+        <v>49.63588711329622</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.2609100614575</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.639017969871999</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.43604050448932</v>
       </c>
       <c r="K22">
-        <v>24.65213814759719</v>
+        <v>25.117730648053</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.246434746158451</v>
       </c>
       <c r="M22">
-        <v>23.84344388655009</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.5178840974605</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.46798624699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>26.16326933517166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.516234320880084</v>
+        <v>5.28615746880291</v>
       </c>
       <c r="D23">
-        <v>4.119098921836789</v>
+        <v>8.338116206893785</v>
       </c>
       <c r="E23">
-        <v>14.98751985390378</v>
+        <v>14.97868370919567</v>
       </c>
       <c r="F23">
-        <v>24.72563600941889</v>
+        <v>37.27801968692997</v>
       </c>
       <c r="G23">
-        <v>2.029597106129747</v>
+        <v>48.79585685777943</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.155089017173257</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.5511186255198</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.2738500703801</v>
       </c>
       <c r="K23">
-        <v>24.20744773212915</v>
+        <v>24.76043201330824</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.149925700688989</v>
       </c>
       <c r="M23">
-        <v>23.39182515491215</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.5923030830976</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.22857745331022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>25.777021429167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.770393527844277</v>
+        <v>5.013778301922764</v>
       </c>
       <c r="D24">
-        <v>3.990555271422711</v>
+        <v>7.993551002594532</v>
       </c>
       <c r="E24">
-        <v>13.70211319536414</v>
+        <v>14.21278712959974</v>
       </c>
       <c r="F24">
-        <v>23.20776180502502</v>
+        <v>34.9620548196222</v>
       </c>
       <c r="G24">
-        <v>2.040000782954874</v>
+        <v>45.4132681058785</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.743828681072209</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.211120507707754</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.62841928152141</v>
       </c>
       <c r="K24">
-        <v>22.45512780777728</v>
+        <v>23.30718776323144</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.773176146059964</v>
       </c>
       <c r="M24">
-        <v>21.61873343021589</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>10.88008972911165</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.34471950117931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>24.22987077167503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.906228487680177</v>
+        <v>4.698755459945989</v>
       </c>
       <c r="D25">
-        <v>3.846291994461769</v>
+        <v>7.610590762650989</v>
       </c>
       <c r="E25">
-        <v>12.34977325268014</v>
+        <v>13.34211621150988</v>
       </c>
       <c r="F25">
-        <v>21.57888765694346</v>
+        <v>32.31255052252757</v>
       </c>
       <c r="G25">
-        <v>2.051520351581813</v>
+        <v>41.50166045104957</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.281268011768569</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.830048355969618</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.90497703069124</v>
       </c>
       <c r="K25">
-        <v>20.41686987198792</v>
+        <v>21.64561692116331</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.347476766508628</v>
       </c>
       <c r="M25">
-        <v>19.56799254717378</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.20292433911434</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.44105506719187</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
+        <v>22.46585526578446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.519722647424238</v>
+        <v>3.762563645785777</v>
       </c>
       <c r="D2">
-        <v>7.307807560737759</v>
+        <v>7.473380487531185</v>
       </c>
       <c r="E2">
-        <v>12.66081514364212</v>
+        <v>12.65825726567348</v>
       </c>
       <c r="F2">
-        <v>30.31688064695337</v>
+        <v>28.96018870087251</v>
       </c>
       <c r="G2">
-        <v>38.54121147532175</v>
+        <v>35.59653246466611</v>
       </c>
       <c r="H2">
-        <v>2.926668092492478</v>
+        <v>2.800375226867603</v>
       </c>
       <c r="I2">
-        <v>4.538174935345003</v>
+        <v>4.347581498083263</v>
       </c>
       <c r="J2">
-        <v>11.38123682252859</v>
+        <v>11.48214062852112</v>
       </c>
       <c r="K2">
-        <v>20.44228730395645</v>
+        <v>18.7944060283292</v>
       </c>
       <c r="L2">
-        <v>8.021399430520356</v>
+        <v>16.39374474198133</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.13620436569638</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.933797836819275</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682247</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>21.15775880028378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>20.01938726066975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.347427534115364</v>
+        <v>3.625489674482695</v>
       </c>
       <c r="D3">
-        <v>7.104906290544577</v>
+        <v>7.248993236803041</v>
       </c>
       <c r="E3">
-        <v>12.17962886786708</v>
+        <v>12.1782087944293</v>
       </c>
       <c r="F3">
-        <v>28.84961989901598</v>
+        <v>27.65203355175887</v>
       </c>
       <c r="G3">
-        <v>36.32412618678379</v>
+        <v>33.62382585103069</v>
       </c>
       <c r="H3">
-        <v>2.673051119337258</v>
+        <v>2.56546513166608</v>
       </c>
       <c r="I3">
-        <v>4.330131604405933</v>
+        <v>4.171680105204953</v>
       </c>
       <c r="J3">
-        <v>10.99897374131939</v>
+        <v>11.15225808429395</v>
       </c>
       <c r="K3">
-        <v>19.53043749353226</v>
+        <v>18.07219653688349</v>
       </c>
       <c r="L3">
-        <v>7.789278927279263</v>
+        <v>16.13778095471597</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.22849317761558</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.713307681857325</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>20.1903383278825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>19.18815723046377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.234654983877912</v>
+        <v>3.539288228155832</v>
       </c>
       <c r="D4">
-        <v>6.978580858296042</v>
+        <v>7.10939515727392</v>
       </c>
       <c r="E4">
-        <v>11.87416265665414</v>
+        <v>11.87365706025024</v>
       </c>
       <c r="F4">
-        <v>27.91393401379202</v>
+        <v>26.81800777012122</v>
       </c>
       <c r="G4">
-        <v>34.89583133621997</v>
+        <v>32.35371815284888</v>
       </c>
       <c r="H4">
-        <v>2.511482359025667</v>
+        <v>2.415637048996982</v>
       </c>
       <c r="I4">
-        <v>4.1977737372058</v>
+        <v>4.059748578627489</v>
       </c>
       <c r="J4">
-        <v>10.75901139027611</v>
+        <v>10.94382366342601</v>
       </c>
       <c r="K4">
-        <v>18.94862209637481</v>
+        <v>17.6112014103661</v>
       </c>
       <c r="L4">
-        <v>7.642285285474204</v>
+        <v>15.96906948315572</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.65484550899672</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.573734278003455</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>19.57491749869028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>18.65948925655439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.178922072210154</v>
+        <v>3.502565759606522</v>
       </c>
       <c r="D5">
-        <v>6.92805557683023</v>
+        <v>7.053506883667115</v>
       </c>
       <c r="E5">
-        <v>11.74766461927602</v>
+        <v>11.74763128057371</v>
       </c>
       <c r="F5">
-        <v>27.51526255890964</v>
+        <v>26.4620403928187</v>
       </c>
       <c r="G5">
-        <v>34.28071907347151</v>
+        <v>31.80546522189114</v>
       </c>
       <c r="H5">
-        <v>2.44377220053347</v>
+        <v>2.352819540255731</v>
       </c>
       <c r="I5">
-        <v>4.142310582547109</v>
+        <v>4.013052138871946</v>
       </c>
       <c r="J5">
-        <v>10.65675040495501</v>
+        <v>10.85442889195436</v>
       </c>
       <c r="K5">
-        <v>18.69535250262084</v>
+        <v>17.40878364294204</v>
       </c>
       <c r="L5">
-        <v>7.580935494739351</v>
+        <v>15.88968867477424</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.40952452989686</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.515503493986133</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>19.31133451773852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>18.43231771632507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.159796188957434</v>
+        <v>3.495260162523726</v>
       </c>
       <c r="D6">
-        <v>6.921292107665759</v>
+        <v>7.045913992135685</v>
       </c>
       <c r="E6">
-        <v>11.72701449500819</v>
+        <v>11.72710624308779</v>
       </c>
       <c r="F6">
-        <v>27.43752332587145</v>
+        <v>26.39184776508877</v>
       </c>
       <c r="G6">
-        <v>34.15726942183642</v>
+        <v>31.69371941724837</v>
       </c>
       <c r="H6">
-        <v>2.431978357372586</v>
+        <v>2.341891922526134</v>
       </c>
       <c r="I6">
-        <v>4.132742068922672</v>
+        <v>4.005307102138266</v>
       </c>
       <c r="J6">
-        <v>10.63569124368268</v>
+        <v>10.83575135523061</v>
       </c>
       <c r="K6">
-        <v>18.63961764840187</v>
+        <v>17.36227439819872</v>
       </c>
       <c r="L6">
-        <v>7.570242991563893</v>
+        <v>15.86690237613209</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.35859865637602</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.505363402544931</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>19.25785039557325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>18.38531652785585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.207451724529395</v>
+        <v>3.535693008402276</v>
       </c>
       <c r="D7">
-        <v>6.982364745008425</v>
+        <v>7.116140388537398</v>
       </c>
       <c r="E7">
-        <v>11.8738155185136</v>
+        <v>11.87439141050336</v>
       </c>
       <c r="F7">
-        <v>27.8789094913245</v>
+        <v>26.76721005947914</v>
       </c>
       <c r="G7">
-        <v>34.83319949450816</v>
+        <v>32.39957848816238</v>
       </c>
       <c r="H7">
-        <v>2.509331974401679</v>
+        <v>2.413079936658915</v>
       </c>
       <c r="I7">
-        <v>4.196052906946841</v>
+        <v>4.05842663613645</v>
       </c>
       <c r="J7">
-        <v>10.74680055311868</v>
+        <v>10.87209206494508</v>
       </c>
       <c r="K7">
-        <v>18.90924514918458</v>
+        <v>17.56276647399403</v>
       </c>
       <c r="L7">
-        <v>7.640274082110205</v>
+        <v>15.93414492283287</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.61524460348801</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.571206477561324</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>19.54605469707469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>18.61737010765948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.428101654602861</v>
+        <v>3.712596620373317</v>
       </c>
       <c r="D8">
-        <v>7.243968043214331</v>
+        <v>7.41165900494989</v>
       </c>
       <c r="E8">
-        <v>12.49876493274771</v>
+        <v>12.49986776855389</v>
       </c>
       <c r="F8">
-        <v>29.78132784740779</v>
+        <v>28.42530850274187</v>
       </c>
       <c r="G8">
-        <v>37.72370846221663</v>
+        <v>35.19234985398605</v>
       </c>
       <c r="H8">
-        <v>2.838829115723206</v>
+        <v>2.717234533804243</v>
       </c>
       <c r="I8">
-        <v>4.46593536570085</v>
+        <v>4.285449965786701</v>
       </c>
       <c r="J8">
-        <v>11.23679384706917</v>
+        <v>11.16351035873799</v>
       </c>
       <c r="K8">
-        <v>20.08738559332383</v>
+        <v>18.46944080240124</v>
       </c>
       <c r="L8">
-        <v>7.940809688414567</v>
+        <v>16.24986437183246</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.76339332780211</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.855266885946739</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>20.79703856493605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>19.65958594245643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.849870644588589</v>
+        <v>4.047306658654872</v>
       </c>
       <c r="D9">
-        <v>7.733633555445356</v>
+        <v>7.955624898317423</v>
       </c>
       <c r="E9">
-        <v>13.63900492401349</v>
+        <v>13.63861361099161</v>
       </c>
       <c r="F9">
-        <v>33.27043765949026</v>
+        <v>31.53089889238319</v>
       </c>
       <c r="G9">
-        <v>42.93557038666832</v>
+        <v>39.88391576524128</v>
       </c>
       <c r="H9">
-        <v>3.441772263829475</v>
+        <v>3.274277125151601</v>
       </c>
       <c r="I9">
-        <v>4.961657398805476</v>
+        <v>4.703241738620835</v>
       </c>
       <c r="J9">
-        <v>12.16955346287225</v>
+        <v>11.9235961085445</v>
       </c>
       <c r="K9">
-        <v>22.27358690696962</v>
+        <v>20.2006186980292</v>
       </c>
       <c r="L9">
-        <v>8.495290327956674</v>
+        <v>16.85052885647033</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.94140335403933</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.381819689974146</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>23.11169758124459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>21.64437173140961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.120854383397307</v>
+        <v>4.275468956254602</v>
       </c>
       <c r="D10">
-        <v>8.002280292140494</v>
+        <v>8.273194729555188</v>
       </c>
       <c r="E10">
-        <v>14.20998953413601</v>
+        <v>14.21098379195337</v>
       </c>
       <c r="F10">
-        <v>35.4395484157061</v>
+        <v>33.36796756151557</v>
       </c>
       <c r="G10">
-        <v>46.19750822928484</v>
+        <v>43.29908297393759</v>
       </c>
       <c r="H10">
-        <v>3.83930191537742</v>
+        <v>3.637407811707564</v>
       </c>
       <c r="I10">
-        <v>5.298031492654233</v>
+        <v>4.984037298432686</v>
       </c>
       <c r="J10">
-        <v>12.77255803241232</v>
+        <v>12.10005955268271</v>
       </c>
       <c r="K10">
-        <v>23.6594110611086</v>
+        <v>21.23326207126147</v>
       </c>
       <c r="L10">
-        <v>8.76993162204108</v>
+        <v>17.136333881428</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.31146265382239</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.634717285744573</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>24.58271440969758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>22.82862229139055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.266319076653619</v>
+        <v>4.318898563677971</v>
       </c>
       <c r="D11">
-        <v>7.440892411619865</v>
+        <v>7.716906942428057</v>
       </c>
       <c r="E11">
-        <v>12.68713148576</v>
+        <v>12.66661354840696</v>
       </c>
       <c r="F11">
-        <v>34.71355580694231</v>
+        <v>32.44382635310291</v>
       </c>
       <c r="G11">
-        <v>45.81436970941595</v>
+        <v>43.92935347632667</v>
       </c>
       <c r="H11">
-        <v>4.358468455651082</v>
+        <v>4.171419734199567</v>
       </c>
       <c r="I11">
-        <v>5.387184768813244</v>
+        <v>5.055495987915348</v>
       </c>
       <c r="J11">
-        <v>12.64678901324935</v>
+        <v>11.31956762511972</v>
       </c>
       <c r="K11">
-        <v>23.50638827792992</v>
+        <v>20.92946683531088</v>
       </c>
       <c r="L11">
-        <v>8.005596398210809</v>
+        <v>16.72373056140211</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.30835157414495</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.860571150138984</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>24.35157468785918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>22.42238048236062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.381772547683729</v>
+        <v>4.332363514285939</v>
       </c>
       <c r="D12">
-        <v>6.922668124546871</v>
+        <v>7.176241117067797</v>
       </c>
       <c r="E12">
-        <v>11.36959775988133</v>
+        <v>11.31815031401594</v>
       </c>
       <c r="F12">
-        <v>33.66865388575081</v>
+        <v>31.34974382743553</v>
       </c>
       <c r="G12">
-        <v>44.86930696410737</v>
+        <v>43.5179448497743</v>
       </c>
       <c r="H12">
-        <v>5.257902949592759</v>
+        <v>5.104650123970891</v>
       </c>
       <c r="I12">
-        <v>5.396939287205011</v>
+        <v>5.061593352157898</v>
       </c>
       <c r="J12">
-        <v>12.423328214651</v>
+        <v>10.82491953442857</v>
       </c>
       <c r="K12">
-        <v>23.12838413575777</v>
+        <v>20.53005929173277</v>
       </c>
       <c r="L12">
-        <v>7.380358654581452</v>
+        <v>16.36988650373558</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.0791634971944</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.234538922203569</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>23.87326389776982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>21.89789403584743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.448221288232816</v>
+        <v>4.323030642762373</v>
       </c>
       <c r="D13">
-        <v>6.41199595781608</v>
+        <v>6.614347659899771</v>
       </c>
       <c r="E13">
-        <v>10.14955092305602</v>
+        <v>10.05597529842177</v>
       </c>
       <c r="F13">
-        <v>32.24884814361523</v>
+        <v>30.02921496346508</v>
       </c>
       <c r="G13">
-        <v>43.33811157862621</v>
+        <v>41.98683494625621</v>
       </c>
       <c r="H13">
-        <v>6.323709677876105</v>
+        <v>6.203921060001977</v>
       </c>
       <c r="I13">
-        <v>5.345683159069692</v>
+        <v>5.019601525420513</v>
       </c>
       <c r="J13">
-        <v>12.09173593703872</v>
+        <v>10.61779923604895</v>
       </c>
       <c r="K13">
-        <v>22.49826762930805</v>
+        <v>20.00400781229732</v>
       </c>
       <c r="L13">
-        <v>6.836789230722728</v>
+        <v>16.01694687436214</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.64023969718793</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.698867572730379</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>23.13025899735383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>21.23714222510888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.466852153501431</v>
+        <v>4.30633843490608</v>
       </c>
       <c r="D14">
-        <v>6.066066251151072</v>
+        <v>6.219707810068281</v>
       </c>
       <c r="E14">
-        <v>9.384396217755135</v>
+        <v>9.256689918671359</v>
       </c>
       <c r="F14">
-        <v>31.06064214316276</v>
+        <v>28.97767611947325</v>
       </c>
       <c r="G14">
-        <v>41.96653714358237</v>
+        <v>40.38187772351047</v>
       </c>
       <c r="H14">
-        <v>7.136812813746371</v>
+        <v>7.03751655088614</v>
       </c>
       <c r="I14">
-        <v>5.28252399430862</v>
+        <v>4.96896236529123</v>
       </c>
       <c r="J14">
-        <v>11.80494773798123</v>
+        <v>10.58874374304915</v>
       </c>
       <c r="K14">
-        <v>21.92700769371862</v>
+        <v>19.56303575616419</v>
       </c>
       <c r="L14">
-        <v>6.519479156196247</v>
+        <v>15.75922130291674</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.22505433552708</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.391423520890478</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>22.47530479195411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>20.69778772355473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.449010401219994</v>
+        <v>4.291038729245019</v>
       </c>
       <c r="D15">
-        <v>5.982411488808818</v>
+        <v>6.120294662933545</v>
       </c>
       <c r="E15">
-        <v>9.208710425743353</v>
+        <v>9.072796859232559</v>
       </c>
       <c r="F15">
-        <v>30.68022821592259</v>
+        <v>28.66018453424899</v>
       </c>
       <c r="G15">
-        <v>41.48643440537166</v>
+        <v>39.74574341873016</v>
       </c>
       <c r="H15">
-        <v>7.321821972627383</v>
+        <v>7.227910470370155</v>
       </c>
       <c r="I15">
-        <v>5.253600839448454</v>
+        <v>4.946294112597014</v>
       </c>
       <c r="J15">
-        <v>11.708587738122</v>
+        <v>10.62849104979539</v>
       </c>
       <c r="K15">
-        <v>21.7215686835075</v>
+        <v>19.41512371791777</v>
       </c>
       <c r="L15">
-        <v>6.449384127029127</v>
+        <v>15.68671490754241</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.06796928574527</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.325234171723953</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>22.25030502518434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>20.52660211654849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.311036311532495</v>
+        <v>4.194572819124799</v>
       </c>
       <c r="D16">
-        <v>5.961450904245329</v>
+        <v>6.0704605021525</v>
       </c>
       <c r="E16">
-        <v>9.16789112602093</v>
+        <v>9.03796918310721</v>
       </c>
       <c r="F16">
-        <v>29.95776578792887</v>
+        <v>28.18952579275937</v>
       </c>
       <c r="G16">
-        <v>40.30306048592778</v>
+        <v>37.75208610571498</v>
       </c>
       <c r="H16">
-        <v>7.034799250220786</v>
+        <v>6.949563272085199</v>
       </c>
       <c r="I16">
-        <v>5.121818322418702</v>
+        <v>4.840966223522473</v>
       </c>
       <c r="J16">
-        <v>11.50119618464348</v>
+        <v>11.03200623237687</v>
       </c>
       <c r="K16">
-        <v>21.21499826530987</v>
+        <v>19.12902961226442</v>
       </c>
       <c r="L16">
-        <v>6.427228663130838</v>
+        <v>15.66354969353781</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.61354687331375</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.314555676794756</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>21.72815798950137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>20.22247175337202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.191371775545014</v>
+        <v>4.12909964757664</v>
       </c>
       <c r="D17">
-        <v>6.127290081627468</v>
+        <v>6.242188643770604</v>
       </c>
       <c r="E17">
-        <v>9.525736606317782</v>
+        <v>9.417309416804756</v>
       </c>
       <c r="F17">
-        <v>30.0557592016008</v>
+        <v>28.38523988617549</v>
       </c>
       <c r="G17">
-        <v>40.14557771808001</v>
+        <v>37.22605419400364</v>
       </c>
       <c r="H17">
-        <v>6.331728794209765</v>
+        <v>6.243273885186346</v>
       </c>
       <c r="I17">
-        <v>5.053713458894434</v>
+        <v>4.785982775347343</v>
       </c>
       <c r="J17">
-        <v>11.49803456861111</v>
+        <v>11.28589796382596</v>
       </c>
       <c r="K17">
-        <v>21.13656151799043</v>
+        <v>19.13448784137212</v>
       </c>
       <c r="L17">
-        <v>6.566541176805075</v>
+        <v>15.77744877603085</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.47751126003957</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.456978272768923</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>21.68512768351036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>20.26557655949833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.102479203312315</v>
+        <v>4.096730984588101</v>
       </c>
       <c r="D18">
-        <v>6.491154096569868</v>
+        <v>6.633929690604903</v>
       </c>
       <c r="E18">
-        <v>10.38028147987559</v>
+        <v>10.30409806350882</v>
       </c>
       <c r="F18">
-        <v>30.89423532049386</v>
+        <v>29.22853097537609</v>
       </c>
       <c r="G18">
-        <v>40.902824716861</v>
+        <v>37.77650848133114</v>
       </c>
       <c r="H18">
-        <v>5.265796651949536</v>
+        <v>5.160091114425609</v>
       </c>
       <c r="I18">
-        <v>5.034927290860292</v>
+        <v>4.769797908684386</v>
       </c>
       <c r="J18">
-        <v>11.67750753234648</v>
+        <v>11.55484414016874</v>
       </c>
       <c r="K18">
-        <v>21.44637969919007</v>
+        <v>19.43872362140148</v>
       </c>
       <c r="L18">
-        <v>6.930975879163169</v>
+        <v>16.05624883592851</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.63993320076219</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.819527017682428</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>22.06957930661831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>20.65716704069203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.00609540676411</v>
+        <v>4.100525578583439</v>
       </c>
       <c r="D19">
-        <v>7.018465303005391</v>
+        <v>7.199625925463507</v>
       </c>
       <c r="E19">
-        <v>11.69177447164875</v>
+        <v>11.64934295972094</v>
       </c>
       <c r="F19">
-        <v>32.20147735091465</v>
+        <v>30.4811771850456</v>
       </c>
       <c r="G19">
-        <v>42.23853411675785</v>
+        <v>38.97749929274345</v>
       </c>
       <c r="H19">
-        <v>4.212665838839389</v>
+        <v>4.073492764561485</v>
       </c>
       <c r="I19">
-        <v>5.060993780580125</v>
+        <v>4.792019267377182</v>
       </c>
       <c r="J19">
-        <v>11.96869606600076</v>
+        <v>11.84298251754335</v>
       </c>
       <c r="K19">
-        <v>21.98124820118898</v>
+        <v>19.90921440962248</v>
       </c>
       <c r="L19">
-        <v>7.531986985402225</v>
+        <v>16.41183545594188</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.9892066092995</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.416412331407107</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>22.71993387916185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>21.26411339272762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.981771967471118</v>
+        <v>4.220679593870877</v>
       </c>
       <c r="D20">
-        <v>7.941063035199587</v>
+        <v>8.190242079461816</v>
       </c>
       <c r="E20">
-        <v>14.05669284888873</v>
+        <v>14.0543579014527</v>
       </c>
       <c r="F20">
-        <v>34.79756072402751</v>
+        <v>32.86566942279505</v>
       </c>
       <c r="G20">
-        <v>45.21901827115526</v>
+        <v>41.9857477979898</v>
       </c>
       <c r="H20">
-        <v>3.731301518293598</v>
+        <v>3.54056233848188</v>
       </c>
       <c r="I20">
-        <v>5.209690713506459</v>
+        <v>4.915143948801239</v>
       </c>
       <c r="J20">
-        <v>12.58520340146873</v>
+        <v>12.21524188500368</v>
       </c>
       <c r="K20">
-        <v>23.20637757454996</v>
+        <v>20.91104319792593</v>
       </c>
       <c r="L20">
-        <v>8.690971783283485</v>
+        <v>17.02357933633435</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.91434286405988</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.563522480284046</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>24.1344807056566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>22.50119281293105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.186458656891237</v>
+        <v>4.397981812224976</v>
       </c>
       <c r="D21">
-        <v>8.26633810687072</v>
+        <v>8.607787928518944</v>
       </c>
       <c r="E21">
-        <v>14.80715648546006</v>
+        <v>14.82764511445604</v>
       </c>
       <c r="F21">
-        <v>36.71314854151689</v>
+        <v>34.25614432763848</v>
       </c>
       <c r="G21">
-        <v>47.96100934981882</v>
+        <v>46.35139651898551</v>
       </c>
       <c r="H21">
-        <v>4.059495640520645</v>
+        <v>3.832242966882229</v>
       </c>
       <c r="I21">
-        <v>5.473301818133156</v>
+        <v>5.125597785773092</v>
       </c>
       <c r="J21">
-        <v>13.11084572896952</v>
+        <v>11.44023531053526</v>
       </c>
       <c r="K21">
-        <v>24.38094686516103</v>
+        <v>21.62491133613661</v>
       </c>
       <c r="L21">
-        <v>9.062614002122363</v>
+        <v>17.19469493327112</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.88969266531002</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.908666972092524</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>25.39124414618006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>23.30494615100985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.344590213697274</v>
+        <v>4.508120963956078</v>
       </c>
       <c r="D22">
-        <v>8.429523554396056</v>
+        <v>8.831939562979207</v>
       </c>
       <c r="E22">
-        <v>15.17580676059627</v>
+        <v>15.21115823199104</v>
       </c>
       <c r="F22">
-        <v>37.85861688955978</v>
+        <v>35.05492104514522</v>
       </c>
       <c r="G22">
-        <v>49.63588711329622</v>
+        <v>49.15513971738491</v>
       </c>
       <c r="H22">
-        <v>4.2609100614575</v>
+        <v>4.010418098190798</v>
       </c>
       <c r="I22">
-        <v>5.639017969871999</v>
+        <v>5.256471789646409</v>
       </c>
       <c r="J22">
-        <v>13.43604050448932</v>
+        <v>10.87489312100533</v>
       </c>
       <c r="K22">
-        <v>25.117730648053</v>
+        <v>22.06083300189052</v>
       </c>
       <c r="L22">
-        <v>9.246434746158451</v>
+        <v>17.28899968236624</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.49373254618502</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.07530989855479</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>26.16326933517166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>23.7768508560907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.28615746880291</v>
+        <v>4.448835394158804</v>
       </c>
       <c r="D23">
-        <v>8.338116206893785</v>
+        <v>8.701009473418301</v>
       </c>
       <c r="E23">
-        <v>14.97868370919567</v>
+        <v>15.00342961368939</v>
       </c>
       <c r="F23">
-        <v>37.27801968692997</v>
+        <v>34.69372949054559</v>
       </c>
       <c r="G23">
-        <v>48.79585685777943</v>
+        <v>47.50421111072654</v>
       </c>
       <c r="H23">
-        <v>4.155089017173257</v>
+        <v>3.917833829314463</v>
       </c>
       <c r="I23">
-        <v>5.5511186255198</v>
+        <v>5.186953974374278</v>
       </c>
       <c r="J23">
-        <v>13.2738500703801</v>
+        <v>11.31619884758365</v>
       </c>
       <c r="K23">
-        <v>24.76043201330824</v>
+        <v>21.88666495900116</v>
       </c>
       <c r="L23">
-        <v>9.149925700688989</v>
+        <v>17.27953991804133</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.21823703774113</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.989078226931978</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>25.777021429167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>23.58046822049122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.013778301922764</v>
+        <v>4.221914336611632</v>
       </c>
       <c r="D24">
-        <v>7.993551002594532</v>
+        <v>8.244952522609605</v>
       </c>
       <c r="E24">
-        <v>14.21278712959974</v>
+        <v>14.2123939829684</v>
       </c>
       <c r="F24">
-        <v>34.9620548196222</v>
+        <v>33.02673987186854</v>
       </c>
       <c r="G24">
-        <v>45.4132681058785</v>
+        <v>42.15431101816349</v>
       </c>
       <c r="H24">
-        <v>3.743828681072209</v>
+        <v>3.552460425801946</v>
       </c>
       <c r="I24">
-        <v>5.211120507707754</v>
+        <v>4.914429298405591</v>
       </c>
       <c r="J24">
-        <v>12.62841928152141</v>
+        <v>12.26528327509802</v>
       </c>
       <c r="K24">
-        <v>23.30718776323144</v>
+        <v>21.00602095600272</v>
       </c>
       <c r="L24">
-        <v>8.773176146059964</v>
+        <v>17.09679674713026</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.98317510136441</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.645540236574426</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>24.22987077167503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>22.5938353043449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.698755459945989</v>
+        <v>3.959107691507645</v>
       </c>
       <c r="D25">
-        <v>7.610590762650989</v>
+        <v>7.814551231038807</v>
       </c>
       <c r="E25">
-        <v>13.34211621150988</v>
+        <v>13.34094928882326</v>
       </c>
       <c r="F25">
-        <v>32.31255052252757</v>
+        <v>30.69649087054134</v>
       </c>
       <c r="G25">
-        <v>41.50166045104957</v>
+        <v>38.45673155275248</v>
       </c>
       <c r="H25">
-        <v>3.281268011768569</v>
+        <v>3.127022697552792</v>
       </c>
       <c r="I25">
-        <v>4.830048355969618</v>
+        <v>4.594677514698092</v>
       </c>
       <c r="J25">
-        <v>11.90497703069124</v>
+        <v>11.78605673638242</v>
       </c>
       <c r="K25">
-        <v>21.64561692116331</v>
+        <v>19.70909910280263</v>
       </c>
       <c r="L25">
-        <v>8.347476766508628</v>
+        <v>16.66918161679985</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.33975461437145</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.242279794175758</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
-        <v>22.46585526578446</v>
+      <c r="S25">
+        <v>21.10500556533702</v>
       </c>
     </row>
   </sheetData>
